--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_9_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_9_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-473289.516232406</v>
+        <v>-475586.3800478931</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673422</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>217.0275780651082</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>217.0275780651082</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,16 +750,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>75.72326547824598</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>67.02026086354051</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>220.8837963815378</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,7 +941,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>58.35969482334246</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>99.29102775467332</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="U7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>200.160833108852</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1193,13 +1193,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>122.1593365443638</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>220.4116871205947</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I11" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>115.4156079284248</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2210634283829</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>97.71153510303041</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>35.84626210042788</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I14" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>251.0299949913899</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2242758664309</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>97.71153510303041</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.1717904191954</v>
+        <v>162.897092983707</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>30.41786598363966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I17" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>21.06313481797873</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U19" t="n">
-        <v>61.78549804835657</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I20" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38.996481914302</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>220.3832213634118</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2224884875777</v>
+        <v>202.8624870329569</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.3570135595525</v>
@@ -2336,7 +2336,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I23" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>166.2210634283829</v>
       </c>
       <c r="H25" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T25" t="n">
         <v>220.3832213634118</v>
       </c>
       <c r="U25" t="n">
-        <v>136.4075071683193</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>22.08889248822373</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I26" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>16.46313033713835</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T28" t="n">
         <v>220.3832213634118</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>148.5670114246913</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I29" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>162.8970929837071</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.71153510303041</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>164.7026519667843</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U31" t="n">
         <v>286.2224884875777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3047,7 +3047,7 @@
         <v>299.0656566556569</v>
       </c>
       <c r="I32" t="n">
-        <v>58.35836677280801</v>
+        <v>58.35836677280804</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>119.1068849484067</v>
+        <v>119.106884948407</v>
       </c>
       <c r="T32" t="n">
         <v>205.8234429485686</v>
@@ -3086,7 +3086,7 @@
         <v>251.0299949913899</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>155.0998663845605</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>123.8833592208353</v>
+        <v>123.8833592208356</v>
       </c>
       <c r="E34" t="n">
-        <v>121.7018488491921</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>91.18444893859737</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>57.78643140322518</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4396766218183</v>
+        <v>168.4396766218186</v>
       </c>
       <c r="T34" t="n">
-        <v>195.6511075660348</v>
+        <v>195.6511075660351</v>
       </c>
       <c r="U34" t="n">
-        <v>261.4903746902007</v>
+        <v>261.4903746902009</v>
       </c>
       <c r="V34" t="n">
-        <v>227.405529526451</v>
+        <v>227.4055295264512</v>
       </c>
       <c r="W34" t="n">
-        <v>261.7908845392139</v>
+        <v>261.7908845392142</v>
       </c>
       <c r="X34" t="n">
-        <v>200.9775415916601</v>
+        <v>200.9775415916604</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.8525395547178</v>
+        <v>193.852539554718</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>243.259145646119</v>
       </c>
       <c r="I35" t="n">
-        <v>2.551855763270005</v>
+        <v>2.551855763270069</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.300373938869</v>
+        <v>63.30037393886906</v>
       </c>
       <c r="T35" t="n">
-        <v>150.0169319390305</v>
+        <v>150.0169319390306</v>
       </c>
       <c r="U35" t="n">
         <v>195.2234839818519</v>
@@ -3424,25 +3424,25 @@
         <v>124.0254691723993</v>
       </c>
       <c r="C37" t="n">
-        <v>111.4403100890898</v>
+        <v>111.4403100890896</v>
       </c>
       <c r="D37" t="n">
-        <v>92.80896200867434</v>
+        <v>92.80896200867438</v>
       </c>
       <c r="E37" t="n">
-        <v>90.62745163703116</v>
+        <v>90.6274516370312</v>
       </c>
       <c r="F37" t="n">
-        <v>89.61453701339359</v>
+        <v>89.61453701339327</v>
       </c>
       <c r="G37" t="n">
         <v>110.4145524188449</v>
       </c>
       <c r="H37" t="n">
-        <v>90.6844998650451</v>
+        <v>90.68449986504514</v>
       </c>
       <c r="I37" t="n">
-        <v>46.41776485689289</v>
+        <v>46.41776485689294</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9050240934924</v>
+        <v>41.90502409349244</v>
       </c>
       <c r="S37" t="n">
-        <v>137.3652794096573</v>
+        <v>137.3652794096574</v>
       </c>
       <c r="T37" t="n">
-        <v>164.5767103538738</v>
+        <v>164.5767103538739</v>
       </c>
       <c r="U37" t="n">
         <v>230.4159774780397</v>
@@ -3487,7 +3487,7 @@
         <v>230.716487327053</v>
       </c>
       <c r="X37" t="n">
-        <v>169.9031443794991</v>
+        <v>169.9031443794992</v>
       </c>
       <c r="Y37" t="n">
         <v>162.7781423425568</v>
@@ -3521,7 +3521,7 @@
         <v>243.259145646119</v>
       </c>
       <c r="I38" t="n">
-        <v>2.551855763270034</v>
+        <v>2.551855763270069</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.30037393886901</v>
+        <v>63.30037393886906</v>
       </c>
       <c r="T38" t="n">
-        <v>150.0169319390305</v>
+        <v>150.0169319390306</v>
       </c>
       <c r="U38" t="n">
         <v>195.2234839818519</v>
@@ -3661,25 +3661,25 @@
         <v>124.0254691723993</v>
       </c>
       <c r="C40" t="n">
-        <v>111.4403100890898</v>
+        <v>111.4403100890899</v>
       </c>
       <c r="D40" t="n">
-        <v>92.80896200867434</v>
+        <v>92.80896200867438</v>
       </c>
       <c r="E40" t="n">
-        <v>90.62745163703116</v>
+        <v>90.6274516370312</v>
       </c>
       <c r="F40" t="n">
-        <v>89.61453701339323</v>
+        <v>89.61453701339327</v>
       </c>
       <c r="G40" t="n">
         <v>110.4145524188449</v>
       </c>
       <c r="H40" t="n">
-        <v>90.6844998650451</v>
+        <v>90.68449986504514</v>
       </c>
       <c r="I40" t="n">
-        <v>46.4177648568929</v>
+        <v>46.41776485689294</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9050240934924</v>
+        <v>41.90502409349244</v>
       </c>
       <c r="S40" t="n">
-        <v>137.3652794096573</v>
+        <v>137.3652794096574</v>
       </c>
       <c r="T40" t="n">
-        <v>164.5767103538738</v>
+        <v>164.5767103538739</v>
       </c>
       <c r="U40" t="n">
         <v>230.4159774780397</v>
@@ -3724,7 +3724,7 @@
         <v>230.716487327053</v>
       </c>
       <c r="X40" t="n">
-        <v>169.9031443794991</v>
+        <v>169.9031443794992</v>
       </c>
       <c r="Y40" t="n">
         <v>162.7781423425568</v>
@@ -3758,7 +3758,7 @@
         <v>243.259145646119</v>
       </c>
       <c r="I41" t="n">
-        <v>2.551855763270041</v>
+        <v>2.551855763270034</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.30037393886906</v>
+        <v>63.30037393886903</v>
       </c>
       <c r="T41" t="n">
         <v>150.0169319390306</v>
@@ -3898,25 +3898,25 @@
         <v>124.0254691723993</v>
       </c>
       <c r="C43" t="n">
-        <v>111.4403100890899</v>
+        <v>111.4403100890898</v>
       </c>
       <c r="D43" t="n">
-        <v>92.80896200867438</v>
+        <v>92.80896200867437</v>
       </c>
       <c r="E43" t="n">
-        <v>90.6274516370312</v>
+        <v>90.62745163703119</v>
       </c>
       <c r="F43" t="n">
-        <v>89.61453701339327</v>
+        <v>89.61453701339326</v>
       </c>
       <c r="G43" t="n">
         <v>110.4145524188449</v>
       </c>
       <c r="H43" t="n">
-        <v>90.68449986504514</v>
+        <v>90.68449986504513</v>
       </c>
       <c r="I43" t="n">
-        <v>46.41776485689294</v>
+        <v>46.41776485689292</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.90502409349244</v>
+        <v>41.90502409349243</v>
       </c>
       <c r="S43" t="n">
         <v>137.3652794096574</v>
@@ -3995,7 +3995,7 @@
         <v>243.259145646119</v>
       </c>
       <c r="I44" t="n">
-        <v>2.551855763270048</v>
+        <v>2.551855763270055</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.30037393886906</v>
+        <v>63.30037393886904</v>
       </c>
       <c r="T44" t="n">
         <v>150.0169319390306</v>
@@ -4135,25 +4135,25 @@
         <v>124.0254691723993</v>
       </c>
       <c r="C46" t="n">
-        <v>111.4403100890899</v>
+        <v>111.4403100890898</v>
       </c>
       <c r="D46" t="n">
-        <v>92.8089620086744</v>
+        <v>92.80896200867437</v>
       </c>
       <c r="E46" t="n">
-        <v>90.62745163703121</v>
+        <v>90.62745163703119</v>
       </c>
       <c r="F46" t="n">
-        <v>89.61453701339329</v>
+        <v>89.61453701339326</v>
       </c>
       <c r="G46" t="n">
         <v>110.4145524188449</v>
       </c>
       <c r="H46" t="n">
-        <v>90.68449986504515</v>
+        <v>90.68449986504513</v>
       </c>
       <c r="I46" t="n">
-        <v>46.41776485689295</v>
+        <v>46.41776485689293</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.90502409349246</v>
+        <v>41.90502409349243</v>
       </c>
       <c r="S46" t="n">
         <v>137.3652794096574</v>
       </c>
       <c r="T46" t="n">
-        <v>164.5767103538739</v>
+        <v>164.5767103538738</v>
       </c>
       <c r="U46" t="n">
         <v>230.4159774780397</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.0282188019862</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="C2" t="n">
-        <v>266.0282188019862</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="D2" t="n">
-        <v>266.0282188019862</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="E2" t="n">
-        <v>266.0282188019862</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F2" t="n">
         <v>46.80844297864461</v>
@@ -4364,16 +4364,16 @@
         <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="W2" t="n">
-        <v>509.4769954460863</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="X2" t="n">
-        <v>266.0282188019862</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.0282188019862</v>
+        <v>533.7059962668447</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>555.4877027295624</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="C3" t="n">
-        <v>381.0346734484355</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="D3" t="n">
-        <v>381.0346734484355</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E3" t="n">
-        <v>381.0346734484355</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F3" t="n">
-        <v>234.5001154753204</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G3" t="n">
-        <v>95.76929005793593</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>95.76929005793593</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4413,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4449,10 +4449,10 @@
         <v>555.4877027295624</v>
       </c>
       <c r="X3" t="n">
-        <v>555.4877027295624</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="Y3" t="n">
-        <v>555.4877027295624</v>
+        <v>279.9389693285341</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>710.516763498309</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>731.6906242710602</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C6" t="n">
-        <v>557.2375949899332</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D6" t="n">
-        <v>408.3031853286819</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E6" t="n">
-        <v>249.0657303232264</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F6" t="n">
-        <v>249.0657303232264</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>731.6906242710602</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>731.6906242710602</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>731.6906242710602</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W6" t="n">
-        <v>731.6906242710602</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="X6" t="n">
-        <v>731.6906242710602</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="Y6" t="n">
-        <v>731.6906242710602</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4753,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>255.9366034337592</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>255.9366034337592</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
         <v>53.75394372784808</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>499.3853800778592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>499.3853800778592</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X8" t="n">
-        <v>255.9366034337592</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.9366034337592</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>325.807288741569</v>
+        <v>739.4943568267907</v>
       </c>
       <c r="C9" t="n">
-        <v>325.807288741569</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="D9" t="n">
-        <v>325.807288741569</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4893,10 +4893,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>741.4190877120557</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>533.5675875065228</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>325.807288741569</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -4945,13 +4945,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2396.801190285672</v>
+        <v>2396.801190285673</v>
       </c>
       <c r="C11" t="n">
         <v>2027.838673345261</v>
       </c>
       <c r="D11" t="n">
-        <v>1669.57297473851</v>
+        <v>1669.572974738511</v>
       </c>
       <c r="E11" t="n">
         <v>1283.784722140266</v>
       </c>
       <c r="F11" t="n">
-        <v>872.7988173506585</v>
+        <v>872.7988173506589</v>
       </c>
       <c r="G11" t="n">
-        <v>457.2866824420198</v>
+        <v>457.28668244202</v>
       </c>
       <c r="H11" t="n">
         <v>155.2001605676189</v>
       </c>
       <c r="I11" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J11" t="n">
-        <v>415.9620235708707</v>
+        <v>415.9620235708706</v>
       </c>
       <c r="K11" t="n">
         <v>1015.868804260583</v>
       </c>
       <c r="L11" t="n">
-        <v>1484.20111887828</v>
+        <v>1812.382840634635</v>
       </c>
       <c r="M11" t="n">
-        <v>1942.064603483815</v>
+        <v>2270.24632524017</v>
       </c>
       <c r="N11" t="n">
-        <v>2844.9240614985</v>
+        <v>2844.924061498501</v>
       </c>
       <c r="O11" t="n">
-        <v>3652.281007791103</v>
+        <v>3652.281007791104</v>
       </c>
       <c r="P11" t="n">
-        <v>4303.667099681198</v>
+        <v>4303.667099681199</v>
       </c>
       <c r="Q11" t="n">
-        <v>4715.609167289134</v>
+        <v>4715.609167289135</v>
       </c>
       <c r="R11" t="n">
         <v>4812.615767128013</v>
@@ -5069,22 +5069,22 @@
         <v>4692.305782331642</v>
       </c>
       <c r="T11" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706826</v>
       </c>
       <c r="U11" t="n">
-        <v>4230.83766320037</v>
+        <v>4230.837663200371</v>
       </c>
       <c r="V11" t="n">
-        <v>3899.774775856799</v>
+        <v>3899.774775856801</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.006120586685</v>
+        <v>3547.006120586687</v>
       </c>
       <c r="X11" t="n">
-        <v>3173.540362325605</v>
+        <v>3173.540362325607</v>
       </c>
       <c r="Y11" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349795</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>113.1312674650428</v>
       </c>
       <c r="I12" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J12" t="n">
         <v>292.9758476495718</v>
       </c>
       <c r="K12" t="n">
-        <v>494.0079564978282</v>
+        <v>522.5569039751563</v>
       </c>
       <c r="L12" t="n">
-        <v>810.6429769025937</v>
+        <v>839.1919243799216</v>
       </c>
       <c r="M12" t="n">
-        <v>1199.497979178149</v>
+        <v>1228.046926655477</v>
       </c>
       <c r="N12" t="n">
-        <v>1849.578923541333</v>
+        <v>1641.602408682842</v>
       </c>
       <c r="O12" t="n">
-        <v>2205.681599776197</v>
+        <v>1997.705084917706</v>
       </c>
       <c r="P12" t="n">
-        <v>2472.1523257779</v>
+        <v>2264.17581091941</v>
       </c>
       <c r="Q12" t="n">
         <v>2600.361752854265</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>845.5537961269924</v>
+        <v>415.305137682803</v>
       </c>
       <c r="C13" t="n">
-        <v>676.6176131990856</v>
+        <v>246.3689547548961</v>
       </c>
       <c r="D13" t="n">
-        <v>560.0361910491615</v>
+        <v>96.25231534256034</v>
       </c>
       <c r="E13" t="n">
-        <v>412.1230974667683</v>
+        <v>96.25231534256034</v>
       </c>
       <c r="F13" t="n">
-        <v>412.1230974667683</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="G13" t="n">
-        <v>244.2230333976947</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="H13" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="I13" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J13" t="n">
-        <v>127.7084527208551</v>
+        <v>127.7084527208552</v>
       </c>
       <c r="K13" t="n">
-        <v>309.2373860905587</v>
+        <v>309.2373860905588</v>
       </c>
       <c r="L13" t="n">
-        <v>597.0583571824201</v>
+        <v>597.0583571824202</v>
       </c>
       <c r="M13" t="n">
         <v>910.9143388153277</v>
@@ -5221,28 +5221,28 @@
         <v>1765.40156103574</v>
       </c>
       <c r="R13" t="n">
-        <v>1765.40156103574</v>
+        <v>1666.703040729648</v>
       </c>
       <c r="S13" t="n">
-        <v>1765.40156103574</v>
+        <v>1630.494695173661</v>
       </c>
       <c r="T13" t="n">
-        <v>1765.40156103574</v>
+        <v>1407.885380665164</v>
       </c>
       <c r="U13" t="n">
-        <v>1765.40156103574</v>
+        <v>1118.771755930237</v>
       </c>
       <c r="V13" t="n">
-        <v>1765.40156103574</v>
+        <v>864.0872677243505</v>
       </c>
       <c r="W13" t="n">
-        <v>1475.98439099878</v>
+        <v>864.0872677243505</v>
       </c>
       <c r="X13" t="n">
-        <v>1247.994840100762</v>
+        <v>636.0977168263331</v>
       </c>
       <c r="Y13" t="n">
-        <v>1027.202260957232</v>
+        <v>415.305137682803</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1283.784722140266</v>
       </c>
       <c r="F14" t="n">
-        <v>872.7988173506586</v>
+        <v>872.7988173506587</v>
       </c>
       <c r="G14" t="n">
         <v>457.2866824420198</v>
@@ -5273,40 +5273,40 @@
         <v>155.2001605676189</v>
       </c>
       <c r="I14" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J14" t="n">
-        <v>415.9620235708707</v>
+        <v>415.9620235708706</v>
       </c>
       <c r="K14" t="n">
-        <v>771.4412461893972</v>
+        <v>771.4412461893988</v>
       </c>
       <c r="L14" t="n">
-        <v>1567.95528256345</v>
+        <v>1567.955282563451</v>
       </c>
       <c r="M14" t="n">
-        <v>2470.837165326889</v>
+        <v>2470.83716532689</v>
       </c>
       <c r="N14" t="n">
-        <v>3373.696623341574</v>
+        <v>3373.696623341575</v>
       </c>
       <c r="O14" t="n">
-        <v>4181.053569634177</v>
+        <v>4181.053569634178</v>
       </c>
       <c r="P14" t="n">
-        <v>4513.858940434504</v>
+        <v>4513.858940434505</v>
       </c>
       <c r="Q14" t="n">
-        <v>4715.609167289134</v>
+        <v>4715.609167289135</v>
       </c>
       <c r="R14" t="n">
         <v>4812.615767128013</v>
       </c>
       <c r="S14" t="n">
-        <v>4692.305782331641</v>
+        <v>4692.305782331642</v>
       </c>
       <c r="T14" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706826</v>
       </c>
       <c r="U14" t="n">
         <v>4230.837663200371</v>
@@ -5315,7 +5315,7 @@
         <v>3899.7747758568</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.006120586686</v>
+        <v>3547.006120586685</v>
       </c>
       <c r="X14" t="n">
         <v>3173.540362325606</v>
@@ -5352,13 +5352,13 @@
         <v>113.1312674650428</v>
       </c>
       <c r="I15" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J15" t="n">
-        <v>168.1457226625671</v>
+        <v>292.9758476495718</v>
       </c>
       <c r="K15" t="n">
-        <v>630.9984161532764</v>
+        <v>730.5334188336469</v>
       </c>
       <c r="L15" t="n">
         <v>1047.168439238412</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.3122007323899</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="C16" t="n">
-        <v>494.3122007323899</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="D16" t="n">
-        <v>494.3122007323899</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="E16" t="n">
-        <v>346.3991071499968</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="F16" t="n">
-        <v>199.5091596520864</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="G16" t="n">
-        <v>199.5091596520864</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="H16" t="n">
-        <v>199.5091596520864</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="I16" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J16" t="n">
         <v>127.7084527208552</v>
       </c>
       <c r="K16" t="n">
-        <v>309.2373860905589</v>
+        <v>309.2373860905588</v>
       </c>
       <c r="L16" t="n">
-        <v>597.0583571824202</v>
+        <v>597.0583571824201</v>
       </c>
       <c r="M16" t="n">
-        <v>910.9143388153278</v>
+        <v>910.9143388153277</v>
       </c>
       <c r="N16" t="n">
         <v>1222.74214312947</v>
@@ -5458,28 +5458,28 @@
         <v>1765.40156103574</v>
       </c>
       <c r="R16" t="n">
-        <v>1666.703040729649</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="S16" t="n">
-        <v>1471.580020104199</v>
+        <v>1600.859042870379</v>
       </c>
       <c r="T16" t="n">
-        <v>1471.580020104199</v>
+        <v>1378.249728361882</v>
       </c>
       <c r="U16" t="n">
-        <v>1471.580020104199</v>
+        <v>1089.136103626955</v>
       </c>
       <c r="V16" t="n">
-        <v>1216.895531898312</v>
+        <v>834.4516154210683</v>
       </c>
       <c r="W16" t="n">
-        <v>927.4783618613511</v>
+        <v>545.0344453841077</v>
       </c>
       <c r="X16" t="n">
-        <v>896.7532447061595</v>
+        <v>317.0448944860904</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.9606655626296</v>
+        <v>96.25231534256025</v>
       </c>
     </row>
     <row r="17">
@@ -5492,73 +5492,73 @@
         <v>2396.801190285672</v>
       </c>
       <c r="C17" t="n">
-        <v>2027.83867334526</v>
+        <v>2027.838673345261</v>
       </c>
       <c r="D17" t="n">
-        <v>1669.572974738509</v>
+        <v>1669.572974738511</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.784722140265</v>
+        <v>1283.784722140266</v>
       </c>
       <c r="F17" t="n">
-        <v>872.7988173506576</v>
+        <v>872.7988173506587</v>
       </c>
       <c r="G17" t="n">
-        <v>457.2866824420194</v>
+        <v>457.2866824420199</v>
       </c>
       <c r="H17" t="n">
         <v>155.2001605676189</v>
       </c>
       <c r="I17" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J17" t="n">
-        <v>248.5563745505176</v>
+        <v>415.9620235708706</v>
       </c>
       <c r="K17" t="n">
-        <v>527.5591967947765</v>
+        <v>1015.868804260583</v>
       </c>
       <c r="L17" t="n">
-        <v>1324.073233168829</v>
+        <v>1398.898238229689</v>
       </c>
       <c r="M17" t="n">
-        <v>2226.955115932268</v>
+        <v>1942.064603483816</v>
       </c>
       <c r="N17" t="n">
-        <v>3129.814573946953</v>
+        <v>2844.924061498501</v>
       </c>
       <c r="O17" t="n">
-        <v>3937.171520239555</v>
+        <v>3652.281007791104</v>
       </c>
       <c r="P17" t="n">
-        <v>4368.72635535545</v>
+        <v>4303.667099681199</v>
       </c>
       <c r="Q17" t="n">
-        <v>4780.668422963387</v>
+        <v>4715.609167289135</v>
       </c>
       <c r="R17" t="n">
         <v>4812.615767128013</v>
       </c>
       <c r="S17" t="n">
-        <v>4692.305782331641</v>
+        <v>4692.305782331643</v>
       </c>
       <c r="T17" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706826</v>
       </c>
       <c r="U17" t="n">
-        <v>4230.83766320037</v>
+        <v>4230.837663200371</v>
       </c>
       <c r="V17" t="n">
-        <v>3899.774775856799</v>
+        <v>3899.7747758568</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.006120586685</v>
+        <v>3547.006120586686</v>
       </c>
       <c r="X17" t="n">
-        <v>3173.540362325605</v>
+        <v>3173.540362325606</v>
       </c>
       <c r="Y17" t="n">
-        <v>2783.401030349793</v>
+        <v>2783.401030349794</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5589,19 @@
         <v>113.1312674650428</v>
       </c>
       <c r="I18" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J18" t="n">
         <v>292.9758476495718</v>
       </c>
       <c r="K18" t="n">
-        <v>494.0079564978282</v>
+        <v>522.5569039751563</v>
       </c>
       <c r="L18" t="n">
-        <v>810.6429769025937</v>
+        <v>839.1919243799216</v>
       </c>
       <c r="M18" t="n">
-        <v>1199.497979178149</v>
+        <v>1228.046926655477</v>
       </c>
       <c r="N18" t="n">
         <v>1641.602408682842</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>710.1081787631064</v>
+        <v>286.4643920260012</v>
       </c>
       <c r="C19" t="n">
-        <v>541.1719958351995</v>
+        <v>117.5282090980943</v>
       </c>
       <c r="D19" t="n">
-        <v>391.0553564228637</v>
+        <v>117.5282090980943</v>
       </c>
       <c r="E19" t="n">
-        <v>243.1422628404706</v>
+        <v>117.5282090980943</v>
       </c>
       <c r="F19" t="n">
-        <v>96.25231534256025</v>
+        <v>117.5282090980943</v>
       </c>
       <c r="G19" t="n">
-        <v>96.25231534256025</v>
+        <v>117.5282090980943</v>
       </c>
       <c r="H19" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="I19" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J19" t="n">
-        <v>127.7084527208552</v>
+        <v>127.7084527208551</v>
       </c>
       <c r="K19" t="n">
-        <v>309.2373860905588</v>
+        <v>309.2373860905586</v>
       </c>
       <c r="L19" t="n">
-        <v>597.0583571824202</v>
+        <v>597.05835718242</v>
       </c>
       <c r="M19" t="n">
-        <v>910.9143388153278</v>
+        <v>910.9143388153276</v>
       </c>
       <c r="N19" t="n">
         <v>1222.74214312947</v>
@@ -5692,31 +5692,31 @@
         <v>1703.977723167557</v>
       </c>
       <c r="Q19" t="n">
-        <v>1765.401561035741</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="R19" t="n">
-        <v>1765.401561035741</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="S19" t="n">
-        <v>1765.401561035741</v>
+        <v>1570.27854041029</v>
       </c>
       <c r="T19" t="n">
-        <v>1765.401561035741</v>
+        <v>1347.669225901793</v>
       </c>
       <c r="U19" t="n">
-        <v>1702.991967047501</v>
+        <v>1058.555601166866</v>
       </c>
       <c r="V19" t="n">
-        <v>1448.307478841615</v>
+        <v>803.8711129609791</v>
       </c>
       <c r="W19" t="n">
-        <v>1158.890308804654</v>
+        <v>514.4539429240185</v>
       </c>
       <c r="X19" t="n">
-        <v>930.9007579066365</v>
+        <v>286.4643920260012</v>
       </c>
       <c r="Y19" t="n">
-        <v>710.1081787631064</v>
+        <v>286.4643920260012</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2396.801190285673</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C20" t="n">
         <v>2027.838673345261</v>
       </c>
       <c r="D20" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.57297473851</v>
       </c>
       <c r="E20" t="n">
         <v>1283.784722140266</v>
       </c>
       <c r="F20" t="n">
-        <v>872.7988173506586</v>
+        <v>872.7988173506585</v>
       </c>
       <c r="G20" t="n">
-        <v>457.2866824420198</v>
+        <v>457.2866824420196</v>
       </c>
       <c r="H20" t="n">
         <v>155.2001605676189</v>
       </c>
       <c r="I20" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J20" t="n">
-        <v>248.5563745505176</v>
+        <v>415.9620235708706</v>
       </c>
       <c r="K20" t="n">
-        <v>527.5591967947765</v>
+        <v>1015.868804260583</v>
       </c>
       <c r="L20" t="n">
-        <v>1314.433817147933</v>
+        <v>1812.382840634635</v>
       </c>
       <c r="M20" t="n">
-        <v>2217.315699911373</v>
+        <v>2375.038058651681</v>
       </c>
       <c r="N20" t="n">
-        <v>3120.175157926058</v>
+        <v>2844.924061498501</v>
       </c>
       <c r="O20" t="n">
-        <v>3927.532104218661</v>
+        <v>3652.281007791104</v>
       </c>
       <c r="P20" t="n">
-        <v>4578.918196108756</v>
+        <v>4303.667099681199</v>
       </c>
       <c r="Q20" t="n">
-        <v>4780.668422963387</v>
+        <v>4715.609167289135</v>
       </c>
       <c r="R20" t="n">
         <v>4812.615767128013</v>
       </c>
       <c r="S20" t="n">
-        <v>4692.305782331641</v>
+        <v>4692.305782331643</v>
       </c>
       <c r="T20" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706826</v>
       </c>
       <c r="U20" t="n">
         <v>4230.837663200371</v>
       </c>
       <c r="V20" t="n">
-        <v>3899.774775856801</v>
+        <v>3899.7747758568</v>
       </c>
       <c r="W20" t="n">
         <v>3547.006120586686</v>
       </c>
       <c r="X20" t="n">
-        <v>3173.540362325607</v>
+        <v>3173.540362325606</v>
       </c>
       <c r="Y20" t="n">
-        <v>2783.401030349795</v>
+        <v>2783.401030349794</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>113.1312674650428</v>
       </c>
       <c r="I21" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J21" t="n">
         <v>292.9758476495718</v>
@@ -5835,16 +5835,16 @@
         <v>494.0079564978282</v>
       </c>
       <c r="L21" t="n">
-        <v>810.6429769025937</v>
+        <v>810.6429769025935</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.046926655477</v>
+        <v>1199.497979178149</v>
       </c>
       <c r="N21" t="n">
-        <v>1641.602408682842</v>
+        <v>1613.053461205514</v>
       </c>
       <c r="O21" t="n">
-        <v>1997.705084917706</v>
+        <v>1969.156137440378</v>
       </c>
       <c r="P21" t="n">
         <v>2264.17581091941</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.1230974667683</v>
+        <v>728.9723739770684</v>
       </c>
       <c r="C22" t="n">
-        <v>412.1230974667683</v>
+        <v>560.0361910491615</v>
       </c>
       <c r="D22" t="n">
-        <v>412.1230974667683</v>
+        <v>560.0361910491615</v>
       </c>
       <c r="E22" t="n">
-        <v>412.1230974667683</v>
+        <v>412.1230974667684</v>
       </c>
       <c r="F22" t="n">
-        <v>412.1230974667683</v>
+        <v>412.1230974667684</v>
       </c>
       <c r="G22" t="n">
         <v>244.2230333976947</v>
       </c>
       <c r="H22" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="I22" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J22" t="n">
-        <v>127.7084527208553</v>
+        <v>127.7084527208552</v>
       </c>
       <c r="K22" t="n">
-        <v>309.2373860905589</v>
+        <v>309.2373860905588</v>
       </c>
       <c r="L22" t="n">
         <v>597.0583571824202</v>
       </c>
       <c r="M22" t="n">
-        <v>910.9143388153278</v>
+        <v>910.9143388153277</v>
       </c>
       <c r="N22" t="n">
         <v>1222.74214312947</v>
@@ -5932,28 +5932,28 @@
         <v>1765.40156103574</v>
       </c>
       <c r="R22" t="n">
-        <v>1666.703040729649</v>
+        <v>1666.703040729648</v>
       </c>
       <c r="S22" t="n">
-        <v>1666.703040729649</v>
+        <v>1666.703040729648</v>
       </c>
       <c r="T22" t="n">
         <v>1444.093726221152</v>
       </c>
       <c r="U22" t="n">
-        <v>1154.980101486225</v>
+        <v>1239.182123157559</v>
       </c>
       <c r="V22" t="n">
-        <v>900.295613280338</v>
+        <v>1239.182123157559</v>
       </c>
       <c r="W22" t="n">
-        <v>900.295613280338</v>
+        <v>949.7649531205985</v>
       </c>
       <c r="X22" t="n">
-        <v>672.3060623823206</v>
+        <v>949.7649531205985</v>
       </c>
       <c r="Y22" t="n">
-        <v>451.5134832387905</v>
+        <v>728.9723739770684</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2396.801190285672</v>
       </c>
       <c r="C23" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.83867334526</v>
       </c>
       <c r="D23" t="n">
         <v>1669.57297473851</v>
       </c>
       <c r="E23" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140265</v>
       </c>
       <c r="F23" t="n">
-        <v>872.7988173506587</v>
+        <v>872.7988173506578</v>
       </c>
       <c r="G23" t="n">
-        <v>457.2866824420198</v>
+        <v>457.2866824420189</v>
       </c>
       <c r="H23" t="n">
         <v>155.2001605676189</v>
@@ -5987,25 +5987,25 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J23" t="n">
-        <v>415.9620235708707</v>
+        <v>415.9620235708705</v>
       </c>
       <c r="K23" t="n">
-        <v>694.9648458151296</v>
+        <v>1015.868804260583</v>
       </c>
       <c r="L23" t="n">
-        <v>1491.478882189182</v>
+        <v>1416.174900170495</v>
       </c>
       <c r="M23" t="n">
-        <v>2394.360764952621</v>
+        <v>2319.056782933933</v>
       </c>
       <c r="N23" t="n">
-        <v>3297.220222967307</v>
+        <v>3221.916240948618</v>
       </c>
       <c r="O23" t="n">
-        <v>4104.577169259909</v>
+        <v>3652.281007791103</v>
       </c>
       <c r="P23" t="n">
-        <v>4437.382540060236</v>
+        <v>4303.667099681198</v>
       </c>
       <c r="Q23" t="n">
         <v>4715.609167289134</v>
@@ -6020,19 +6020,19 @@
         <v>4484.403314706826</v>
       </c>
       <c r="U23" t="n">
-        <v>4230.837663200371</v>
+        <v>4230.83766320037</v>
       </c>
       <c r="V23" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856799</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.006120586686</v>
+        <v>3547.006120586685</v>
       </c>
       <c r="X23" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325605</v>
       </c>
       <c r="Y23" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349793</v>
       </c>
     </row>
     <row r="24">
@@ -6072,7 +6072,7 @@
         <v>494.0079564978282</v>
       </c>
       <c r="L24" t="n">
-        <v>810.6429769025937</v>
+        <v>810.6429769025935</v>
       </c>
       <c r="M24" t="n">
         <v>1199.497979178149</v>
@@ -6081,7 +6081,7 @@
         <v>1613.053461205514</v>
       </c>
       <c r="O24" t="n">
-        <v>1969.156137440379</v>
+        <v>1969.156137440378</v>
       </c>
       <c r="P24" t="n">
         <v>2264.17581091941</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>412.1230974667683</v>
+        <v>264.1523794116341</v>
       </c>
       <c r="C25" t="n">
-        <v>412.1230974667683</v>
+        <v>264.1523794116341</v>
       </c>
       <c r="D25" t="n">
-        <v>412.1230974667683</v>
+        <v>264.1523794116339</v>
       </c>
       <c r="E25" t="n">
-        <v>412.1230974667683</v>
+        <v>264.1523794116339</v>
       </c>
       <c r="F25" t="n">
-        <v>412.1230974667683</v>
+        <v>264.1523794116339</v>
       </c>
       <c r="G25" t="n">
-        <v>244.2230333976947</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="H25" t="n">
         <v>96.25231534256025</v>
@@ -6148,13 +6148,13 @@
         <v>127.7084527208552</v>
       </c>
       <c r="K25" t="n">
-        <v>309.2373860905589</v>
+        <v>309.2373860905588</v>
       </c>
       <c r="L25" t="n">
         <v>597.0583571824202</v>
       </c>
       <c r="M25" t="n">
-        <v>910.9143388153278</v>
+        <v>910.9143388153277</v>
       </c>
       <c r="N25" t="n">
         <v>1222.74214312947</v>
@@ -6172,25 +6172,25 @@
         <v>1765.40156103574</v>
       </c>
       <c r="S25" t="n">
-        <v>1765.40156103574</v>
+        <v>1570.27854041029</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.792246527243</v>
+        <v>1347.669225901793</v>
       </c>
       <c r="U25" t="n">
-        <v>1405.006885751163</v>
+        <v>1058.555601166866</v>
       </c>
       <c r="V25" t="n">
-        <v>1150.322397545276</v>
+        <v>803.8711129609794</v>
       </c>
       <c r="W25" t="n">
-        <v>860.9052275083158</v>
+        <v>514.4539429240189</v>
       </c>
       <c r="X25" t="n">
-        <v>632.9156766102984</v>
+        <v>286.4643920260015</v>
       </c>
       <c r="Y25" t="n">
-        <v>412.1230974667683</v>
+        <v>264.1523794116341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2396.801190285673</v>
+        <v>2396.801190285671</v>
       </c>
       <c r="C26" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.838673345259</v>
       </c>
       <c r="D26" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.572974738509</v>
       </c>
       <c r="E26" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140265</v>
       </c>
       <c r="F26" t="n">
-        <v>872.7988173506587</v>
+        <v>872.7988173506574</v>
       </c>
       <c r="G26" t="n">
-        <v>457.2866824420198</v>
+        <v>457.2866824420189</v>
       </c>
       <c r="H26" t="n">
-        <v>155.2001605676189</v>
+        <v>155.2001605676187</v>
       </c>
       <c r="I26" t="n">
         <v>96.25231534256025</v>
       </c>
       <c r="J26" t="n">
-        <v>415.9620235708707</v>
+        <v>248.5563745505175</v>
       </c>
       <c r="K26" t="n">
-        <v>1015.868804260583</v>
+        <v>848.4631552402295</v>
       </c>
       <c r="L26" t="n">
-        <v>1812.382840634635</v>
+        <v>1644.977191614282</v>
       </c>
       <c r="M26" t="n">
-        <v>2270.24632524017</v>
+        <v>2260.645324573583</v>
       </c>
       <c r="N26" t="n">
-        <v>2844.9240614985</v>
+        <v>3163.504782588268</v>
       </c>
       <c r="O26" t="n">
-        <v>3652.281007791103</v>
+        <v>3970.861728880871</v>
       </c>
       <c r="P26" t="n">
         <v>4303.667099681198</v>
@@ -6251,25 +6251,25 @@
         <v>4812.615767128013</v>
       </c>
       <c r="S26" t="n">
-        <v>4692.305782331642</v>
+        <v>4692.305782331641</v>
       </c>
       <c r="T26" t="n">
-        <v>4484.403314706826</v>
+        <v>4484.403314706824</v>
       </c>
       <c r="U26" t="n">
-        <v>4230.837663200371</v>
+        <v>4230.837663200369</v>
       </c>
       <c r="V26" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856798</v>
       </c>
       <c r="W26" t="n">
-        <v>3547.006120586686</v>
+        <v>3547.006120586684</v>
       </c>
       <c r="X26" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325604</v>
       </c>
       <c r="Y26" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349793</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J27" t="n">
-        <v>168.1457226625671</v>
+        <v>292.9758476495718</v>
       </c>
       <c r="K27" t="n">
-        <v>369.1778315108235</v>
+        <v>494.0079564978282</v>
       </c>
       <c r="L27" t="n">
-        <v>685.8128519155889</v>
+        <v>810.6429769025935</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.667854191144</v>
+        <v>1199.497979178149</v>
       </c>
       <c r="N27" t="n">
-        <v>1488.223336218509</v>
+        <v>1613.053461205514</v>
       </c>
       <c r="O27" t="n">
-        <v>1844.326012453374</v>
+        <v>1969.156137440378</v>
       </c>
       <c r="P27" t="n">
-        <v>2426.074879408615</v>
+        <v>2264.17581091941</v>
       </c>
       <c r="Q27" t="n">
         <v>2600.361752854265</v>
@@ -6361,7 +6361,7 @@
         <v>244.1654089249534</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1654089249534</v>
+        <v>244.1654089249533</v>
       </c>
       <c r="D28" t="n">
         <v>244.1654089249534</v>
@@ -6385,13 +6385,13 @@
         <v>127.7084527208552</v>
       </c>
       <c r="K28" t="n">
-        <v>309.2373860905588</v>
+        <v>309.2373860905589</v>
       </c>
       <c r="L28" t="n">
         <v>597.0583571824202</v>
       </c>
       <c r="M28" t="n">
-        <v>910.9143388153277</v>
+        <v>910.9143388153278</v>
       </c>
       <c r="N28" t="n">
         <v>1222.74214312947</v>
@@ -6409,25 +6409,25 @@
         <v>1765.40156103574</v>
       </c>
       <c r="S28" t="n">
-        <v>1748.772136452772</v>
+        <v>1570.27854041029</v>
       </c>
       <c r="T28" t="n">
-        <v>1526.162821944275</v>
+        <v>1347.669225901793</v>
       </c>
       <c r="U28" t="n">
-        <v>1237.049197209348</v>
+        <v>1058.555601166866</v>
       </c>
       <c r="V28" t="n">
-        <v>982.3647090034615</v>
+        <v>803.8711129609795</v>
       </c>
       <c r="W28" t="n">
-        <v>692.9475389665008</v>
+        <v>653.8034246532104</v>
       </c>
       <c r="X28" t="n">
-        <v>464.9579880684835</v>
+        <v>425.8138737551931</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1654089249534</v>
+        <v>425.8138737551931</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2396.801190285672</v>
       </c>
       <c r="C29" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.83867334526</v>
       </c>
       <c r="D29" t="n">
-        <v>1669.57297473851</v>
+        <v>1669.572974738509</v>
       </c>
       <c r="E29" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140265</v>
       </c>
       <c r="F29" t="n">
-        <v>872.7988173506585</v>
+        <v>872.7988173506578</v>
       </c>
       <c r="G29" t="n">
-        <v>457.2866824420198</v>
+        <v>457.2866824420189</v>
       </c>
       <c r="H29" t="n">
         <v>155.2001605676189</v>
@@ -6461,25 +6461,25 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J29" t="n">
-        <v>415.9620235708707</v>
+        <v>248.5563745505175</v>
       </c>
       <c r="K29" t="n">
-        <v>1015.868804260583</v>
+        <v>848.4631552402295</v>
       </c>
       <c r="L29" t="n">
-        <v>1812.382840634635</v>
+        <v>1644.977191614282</v>
       </c>
       <c r="M29" t="n">
-        <v>2270.24632524017</v>
+        <v>2470.837165326889</v>
       </c>
       <c r="N29" t="n">
-        <v>2844.9240614985</v>
+        <v>3373.696623341574</v>
       </c>
       <c r="O29" t="n">
-        <v>3652.281007791103</v>
+        <v>4181.053569634177</v>
       </c>
       <c r="P29" t="n">
-        <v>4303.667099681198</v>
+        <v>4513.858940434504</v>
       </c>
       <c r="Q29" t="n">
         <v>4715.609167289134</v>
@@ -6488,25 +6488,25 @@
         <v>4812.615767128013</v>
       </c>
       <c r="S29" t="n">
-        <v>4692.305782331642</v>
+        <v>4692.305782331641</v>
       </c>
       <c r="T29" t="n">
-        <v>4484.403314706826</v>
+        <v>4484.403314706825</v>
       </c>
       <c r="U29" t="n">
-        <v>4230.837663200371</v>
+        <v>4230.83766320037</v>
       </c>
       <c r="V29" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856799</v>
       </c>
       <c r="W29" t="n">
-        <v>3547.006120586686</v>
+        <v>3547.006120586685</v>
       </c>
       <c r="X29" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325605</v>
       </c>
       <c r="Y29" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349793</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6543,10 @@
         <v>292.9758476495718</v>
       </c>
       <c r="K30" t="n">
-        <v>494.0079564978282</v>
+        <v>522.5569039751563</v>
       </c>
       <c r="L30" t="n">
-        <v>810.6429769025937</v>
+        <v>839.1919243799216</v>
       </c>
       <c r="M30" t="n">
         <v>1228.046926655477</v>
@@ -6622,10 +6622,10 @@
         <v>127.7084527208552</v>
       </c>
       <c r="K31" t="n">
-        <v>309.2373860905587</v>
+        <v>309.2373860905586</v>
       </c>
       <c r="L31" t="n">
-        <v>597.0583571824201</v>
+        <v>597.05835718242</v>
       </c>
       <c r="M31" t="n">
         <v>910.9143388153277</v>
@@ -6643,28 +6643,28 @@
         <v>1765.40156103574</v>
       </c>
       <c r="R31" t="n">
-        <v>1666.703040729649</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="S31" t="n">
-        <v>1471.580020104199</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="T31" t="n">
-        <v>1305.213704986235</v>
+        <v>1542.792246527243</v>
       </c>
       <c r="U31" t="n">
-        <v>1016.100080251308</v>
+        <v>1253.678621792316</v>
       </c>
       <c r="V31" t="n">
-        <v>1016.100080251308</v>
+        <v>998.9941335864289</v>
       </c>
       <c r="W31" t="n">
-        <v>726.6829102143474</v>
+        <v>709.5769635494684</v>
       </c>
       <c r="X31" t="n">
-        <v>498.6933593163301</v>
+        <v>481.5874126514511</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.9007801728</v>
+        <v>260.794833507921</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6698,22 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J32" t="n">
-        <v>248.5563745505176</v>
+        <v>415.9620235708705</v>
       </c>
       <c r="K32" t="n">
-        <v>848.4631552402298</v>
+        <v>1015.868804260583</v>
       </c>
       <c r="L32" t="n">
-        <v>1644.977191614282</v>
+        <v>1812.382840634635</v>
       </c>
       <c r="M32" t="n">
-        <v>2547.859074377721</v>
+        <v>2375.03805865168</v>
       </c>
       <c r="N32" t="n">
-        <v>3450.718532392407</v>
+        <v>2844.924061498501</v>
       </c>
       <c r="O32" t="n">
-        <v>3970.861728880871</v>
+        <v>3652.281007791103</v>
       </c>
       <c r="P32" t="n">
         <v>4303.667099681198</v>
@@ -6780,22 +6780,22 @@
         <v>292.9758476495718</v>
       </c>
       <c r="K33" t="n">
-        <v>494.0079564978282</v>
+        <v>730.5334188336469</v>
       </c>
       <c r="L33" t="n">
-        <v>810.6429769025937</v>
+        <v>1047.168439238412</v>
       </c>
       <c r="M33" t="n">
-        <v>1199.497979178149</v>
+        <v>1436.023441513968</v>
       </c>
       <c r="N33" t="n">
-        <v>1641.602408682842</v>
+        <v>1849.578923541333</v>
       </c>
       <c r="O33" t="n">
-        <v>1997.705084917706</v>
+        <v>2205.681599776197</v>
       </c>
       <c r="P33" t="n">
-        <v>2264.17581091941</v>
+        <v>2472.1523257779</v>
       </c>
       <c r="Q33" t="n">
         <v>2600.361752854265</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>436.423686058343</v>
+        <v>279.7571543567632</v>
       </c>
       <c r="C34" t="n">
-        <v>436.423686058343</v>
+        <v>279.7571543567632</v>
       </c>
       <c r="D34" t="n">
-        <v>311.2889797746709</v>
+        <v>154.6224480730909</v>
       </c>
       <c r="E34" t="n">
-        <v>188.3578193209414</v>
+        <v>154.6224480730909</v>
       </c>
       <c r="F34" t="n">
-        <v>96.25231534256025</v>
+        <v>154.6224480730909</v>
       </c>
       <c r="G34" t="n">
-        <v>96.25231534256025</v>
+        <v>154.6224480730909</v>
       </c>
       <c r="H34" t="n">
-        <v>96.25231534256025</v>
+        <v>154.6224480730909</v>
       </c>
       <c r="I34" t="n">
         <v>96.25231534256025</v>
       </c>
       <c r="J34" t="n">
-        <v>152.1932453802585</v>
+        <v>152.1932453802582</v>
       </c>
       <c r="K34" t="n">
-        <v>358.2069714093653</v>
+        <v>358.2069714093651</v>
       </c>
       <c r="L34" t="n">
-        <v>670.5127351606299</v>
+        <v>670.5127351606295</v>
       </c>
       <c r="M34" t="n">
-        <v>1008.853509452941</v>
+        <v>1008.85350945294</v>
       </c>
       <c r="N34" t="n">
-        <v>1345.166106426486</v>
+        <v>1345.166106426485</v>
       </c>
       <c r="O34" t="n">
-        <v>1641.658051648167</v>
+        <v>1641.658051648165</v>
       </c>
       <c r="P34" t="n">
-        <v>1875.37127178338</v>
+        <v>1875.371271783378</v>
       </c>
       <c r="Q34" t="n">
-        <v>1961.279902310966</v>
+        <v>1961.279902310964</v>
       </c>
       <c r="R34" t="n">
-        <v>1961.279902310966</v>
+        <v>1961.279902310964</v>
       </c>
       <c r="S34" t="n">
-        <v>1791.13881481418</v>
+        <v>1791.138814814178</v>
       </c>
       <c r="T34" t="n">
-        <v>1593.511433434347</v>
+        <v>1593.511433434344</v>
       </c>
       <c r="U34" t="n">
-        <v>1329.379741828083</v>
+        <v>1329.379741828081</v>
       </c>
       <c r="V34" t="n">
-        <v>1099.67718675086</v>
+        <v>1099.677186750857</v>
       </c>
       <c r="W34" t="n">
-        <v>835.2419498425631</v>
+        <v>835.2419498425602</v>
       </c>
       <c r="X34" t="n">
-        <v>632.2343320732094</v>
+        <v>632.2343320732062</v>
       </c>
       <c r="Y34" t="n">
-        <v>436.423686058343</v>
+        <v>436.4236860583395</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1984.953510602832</v>
+        <v>1984.953510602831</v>
       </c>
       <c r="C35" t="n">
-        <v>1672.361206803368</v>
+        <v>1672.361206803367</v>
       </c>
       <c r="D35" t="n">
-        <v>1370.465721337565</v>
+        <v>1370.465721337564</v>
       </c>
       <c r="E35" t="n">
-        <v>1041.047681880269</v>
+        <v>1041.047681880268</v>
       </c>
       <c r="F35" t="n">
-        <v>686.4319902316086</v>
+        <v>686.4319902316072</v>
       </c>
       <c r="G35" t="n">
-        <v>327.2900684639171</v>
+        <v>327.2900684639158</v>
       </c>
       <c r="H35" t="n">
-        <v>81.57375973046295</v>
+        <v>81.57375973046304</v>
       </c>
       <c r="I35" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J35" t="n">
-        <v>398.7058358746622</v>
+        <v>231.3001868543091</v>
       </c>
       <c r="K35" t="n">
-        <v>998.6126165643743</v>
+        <v>510.3030090985681</v>
       </c>
       <c r="L35" t="n">
-        <v>1381.642050533481</v>
+        <v>1306.817045472621</v>
       </c>
       <c r="M35" t="n">
-        <v>1839.505535139016</v>
+        <v>1787.479770268818</v>
       </c>
       <c r="N35" t="n">
-        <v>2309.391537985836</v>
+        <v>2257.365773115639</v>
       </c>
       <c r="O35" t="n">
-        <v>2789.471622980682</v>
+        <v>3064.722719408242</v>
       </c>
       <c r="P35" t="n">
-        <v>3440.857714870777</v>
+        <v>3716.108811298337</v>
       </c>
       <c r="Q35" t="n">
-        <v>3852.799782478713</v>
+        <v>3917.859038152967</v>
       </c>
       <c r="R35" t="n">
-        <v>3949.806382317592</v>
+        <v>3949.806382317593</v>
       </c>
       <c r="S35" t="n">
         <v>3885.866610662169</v>
@@ -6971,16 +6971,16 @@
         <v>3537.138917812793</v>
       </c>
       <c r="V35" t="n">
-        <v>3262.44624361017</v>
+        <v>3262.446243610169</v>
       </c>
       <c r="W35" t="n">
-        <v>2966.047801481003</v>
+        <v>2966.047801481002</v>
       </c>
       <c r="X35" t="n">
-        <v>2648.952256360871</v>
+        <v>2648.95225636087</v>
       </c>
       <c r="Y35" t="n">
-        <v>2315.183137526007</v>
+        <v>2315.183137526005</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H36" t="n">
-        <v>95.87507976883435</v>
+        <v>95.87507976883437</v>
       </c>
       <c r="I36" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J36" t="n">
         <v>275.7196599533634</v>
       </c>
       <c r="K36" t="n">
-        <v>476.7517688016198</v>
+        <v>713.2772311374388</v>
       </c>
       <c r="L36" t="n">
-        <v>793.3867892063853</v>
+        <v>1029.912251542204</v>
       </c>
       <c r="M36" t="n">
-        <v>1182.241791481941</v>
+        <v>1418.767253817759</v>
       </c>
       <c r="N36" t="n">
-        <v>1595.797273509306</v>
+        <v>1832.322735845124</v>
       </c>
       <c r="O36" t="n">
-        <v>1951.89994974417</v>
+        <v>2188.425412079989</v>
       </c>
       <c r="P36" t="n">
-        <v>2246.919623223202</v>
+        <v>2454.896138081692</v>
       </c>
       <c r="Q36" t="n">
         <v>2583.105565158056</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>717.3881255140001</v>
+        <v>717.3881255139997</v>
       </c>
       <c r="C37" t="n">
-        <v>604.8221557270407</v>
+        <v>604.8221557270406</v>
       </c>
       <c r="D37" t="n">
-        <v>511.0757294556524</v>
+        <v>511.0757294556523</v>
       </c>
       <c r="E37" t="n">
-        <v>419.5328490142068</v>
+        <v>419.5328490142066</v>
       </c>
       <c r="F37" t="n">
-        <v>329.0131146572436</v>
+        <v>329.0131146572437</v>
       </c>
       <c r="G37" t="n">
         <v>217.4832637291175</v>
       </c>
       <c r="H37" t="n">
-        <v>125.8827588149305</v>
+        <v>125.8827588149306</v>
       </c>
       <c r="I37" t="n">
-        <v>78.99612764635184</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J37" t="n">
         <v>165.7007109240894</v>
       </c>
       <c r="K37" t="n">
-        <v>402.4780901932353</v>
+        <v>402.4780901932356</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5475071845394</v>
+        <v>745.5475071845397</v>
       </c>
       <c r="M37" t="n">
         <v>1114.65193471689</v>
       </c>
       <c r="N37" t="n">
-        <v>1481.728184930475</v>
+        <v>1481.728184930474</v>
       </c>
       <c r="O37" t="n">
         <v>1808.983783392194</v>
@@ -7126,19 +7126,19 @@
         <v>1842.812724517877</v>
       </c>
       <c r="U37" t="n">
-        <v>1610.069312923898</v>
+        <v>1610.069312923897</v>
       </c>
       <c r="V37" t="n">
         <v>1411.755037858958</v>
       </c>
       <c r="W37" t="n">
-        <v>1178.708080962945</v>
+        <v>1178.708080962944</v>
       </c>
       <c r="X37" t="n">
         <v>1007.088743205875</v>
       </c>
       <c r="Y37" t="n">
-        <v>842.6663772032923</v>
+        <v>842.666377203292</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1984.953510602831</v>
+        <v>1984.953510602832</v>
       </c>
       <c r="C38" t="n">
         <v>1672.361206803367</v>
@@ -7166,58 +7166,58 @@
         <v>327.2900684639158</v>
       </c>
       <c r="H38" t="n">
-        <v>81.57375973046297</v>
+        <v>81.57375973046304</v>
       </c>
       <c r="I38" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J38" t="n">
-        <v>231.3001868543091</v>
+        <v>398.7058358746622</v>
       </c>
       <c r="K38" t="n">
-        <v>831.2069675440212</v>
+        <v>998.6126165643742</v>
       </c>
       <c r="L38" t="n">
-        <v>1214.236401513128</v>
+        <v>1381.642050533481</v>
       </c>
       <c r="M38" t="n">
-        <v>1672.099886118662</v>
+        <v>1839.505535139015</v>
       </c>
       <c r="N38" t="n">
-        <v>2141.985888965483</v>
+        <v>2309.391537985836</v>
       </c>
       <c r="O38" t="n">
-        <v>2949.342835258086</v>
+        <v>2789.471622980683</v>
       </c>
       <c r="P38" t="n">
-        <v>3600.728927148181</v>
+        <v>3440.857714870778</v>
       </c>
       <c r="Q38" t="n">
-        <v>3852.799782478713</v>
+        <v>3852.799782478714</v>
       </c>
       <c r="R38" t="n">
-        <v>3949.806382317591</v>
+        <v>3949.806382317593</v>
       </c>
       <c r="S38" t="n">
-        <v>3885.866610662168</v>
+        <v>3885.866610662169</v>
       </c>
       <c r="T38" t="n">
         <v>3734.334356178299</v>
       </c>
       <c r="U38" t="n">
-        <v>3537.138917812792</v>
+        <v>3537.138917812793</v>
       </c>
       <c r="V38" t="n">
-        <v>3262.446243610168</v>
+        <v>3262.446243610169</v>
       </c>
       <c r="W38" t="n">
-        <v>2966.047801481002</v>
+        <v>2966.047801481003</v>
       </c>
       <c r="X38" t="n">
-        <v>2648.952256360869</v>
+        <v>2648.95225636087</v>
       </c>
       <c r="Y38" t="n">
-        <v>2315.183137526005</v>
+        <v>2315.183137526006</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7245,19 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H39" t="n">
-        <v>95.87507976883434</v>
+        <v>95.87507976883437</v>
       </c>
       <c r="I39" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J39" t="n">
         <v>275.7196599533634</v>
       </c>
       <c r="K39" t="n">
-        <v>476.7517688016197</v>
+        <v>505.3007162789481</v>
       </c>
       <c r="L39" t="n">
-        <v>793.3867892063852</v>
+        <v>821.9357366837135</v>
       </c>
       <c r="M39" t="n">
         <v>1210.790738959269</v>
@@ -7309,28 +7309,28 @@
         <v>717.3881255139997</v>
       </c>
       <c r="C40" t="n">
-        <v>604.8221557270404</v>
+        <v>604.8221557270402</v>
       </c>
       <c r="D40" t="n">
-        <v>511.0757294556521</v>
+        <v>511.0757294556519</v>
       </c>
       <c r="E40" t="n">
-        <v>419.5328490142065</v>
+        <v>419.5328490142062</v>
       </c>
       <c r="F40" t="n">
-        <v>329.0131146572436</v>
+        <v>329.0131146572434</v>
       </c>
       <c r="G40" t="n">
-        <v>217.4832637291175</v>
+        <v>217.4832637291172</v>
       </c>
       <c r="H40" t="n">
-        <v>125.8827588149305</v>
+        <v>125.8827588149306</v>
       </c>
       <c r="I40" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635185</v>
       </c>
       <c r="J40" t="n">
-        <v>165.7007109240894</v>
+        <v>165.7007109240895</v>
       </c>
       <c r="K40" t="n">
         <v>402.4780901932356</v>
@@ -7348,28 +7348,28 @@
         <v>1808.983783392194</v>
       </c>
       <c r="P40" t="n">
-        <v>2073.460656767446</v>
+        <v>2073.460656767447</v>
       </c>
       <c r="Q40" t="n">
-        <v>2190.132940535072</v>
+        <v>2190.132940535073</v>
       </c>
       <c r="R40" t="n">
-        <v>2147.804633369928</v>
+        <v>2147.804633369929</v>
       </c>
       <c r="S40" t="n">
-        <v>2009.051825885425</v>
+        <v>2009.051825885426</v>
       </c>
       <c r="T40" t="n">
-        <v>1842.812724517876</v>
+        <v>1842.812724517877</v>
       </c>
       <c r="U40" t="n">
         <v>1610.069312923897</v>
       </c>
       <c r="V40" t="n">
-        <v>1411.755037858957</v>
+        <v>1411.755037858958</v>
       </c>
       <c r="W40" t="n">
-        <v>1178.708080962944</v>
+        <v>1178.708080962945</v>
       </c>
       <c r="X40" t="n">
         <v>1007.088743205875</v>
@@ -7394,67 +7394,67 @@
         <v>1370.465721337564</v>
       </c>
       <c r="E41" t="n">
-        <v>1041.047681880268</v>
+        <v>1041.047681880267</v>
       </c>
       <c r="F41" t="n">
-        <v>686.4319902316076</v>
+        <v>686.4319902316072</v>
       </c>
       <c r="G41" t="n">
         <v>327.2900684639162</v>
       </c>
       <c r="H41" t="n">
-        <v>81.57375973046301</v>
+        <v>81.57375973046298</v>
       </c>
       <c r="I41" t="n">
-        <v>78.99612764635185</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J41" t="n">
-        <v>398.7058358746622</v>
+        <v>231.3001868543092</v>
       </c>
       <c r="K41" t="n">
-        <v>998.6126165643743</v>
+        <v>831.2069675440214</v>
       </c>
       <c r="L41" t="n">
-        <v>1381.642050533481</v>
+        <v>1214.236401513128</v>
       </c>
       <c r="M41" t="n">
-        <v>1839.505535139016</v>
+        <v>1672.099886118663</v>
       </c>
       <c r="N41" t="n">
-        <v>2309.391537985836</v>
+        <v>2141.985888965483</v>
       </c>
       <c r="O41" t="n">
-        <v>2789.471622980683</v>
+        <v>2949.342835258086</v>
       </c>
       <c r="P41" t="n">
-        <v>3440.857714870778</v>
+        <v>3600.728927148181</v>
       </c>
       <c r="Q41" t="n">
-        <v>3852.799782478714</v>
+        <v>3852.799782478713</v>
       </c>
       <c r="R41" t="n">
-        <v>3949.806382317593</v>
+        <v>3949.806382317592</v>
       </c>
       <c r="S41" t="n">
-        <v>3885.866610662169</v>
+        <v>3885.866610662168</v>
       </c>
       <c r="T41" t="n">
         <v>3734.334356178299</v>
       </c>
       <c r="U41" t="n">
-        <v>3537.138917812793</v>
+        <v>3537.138917812792</v>
       </c>
       <c r="V41" t="n">
         <v>3262.446243610169</v>
       </c>
       <c r="W41" t="n">
-        <v>2966.047801481003</v>
+        <v>2966.047801481002</v>
       </c>
       <c r="X41" t="n">
         <v>2648.95225636087</v>
       </c>
       <c r="Y41" t="n">
-        <v>2315.183137526006</v>
+        <v>2315.183137526005</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H42" t="n">
-        <v>95.87507976883437</v>
+        <v>95.87507976883435</v>
       </c>
       <c r="I42" t="n">
-        <v>78.99612764635185</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J42" t="n">
-        <v>275.7196599533635</v>
+        <v>275.7196599533634</v>
       </c>
       <c r="K42" t="n">
         <v>505.300716278948</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>717.3881255140002</v>
+        <v>717.3881255139999</v>
       </c>
       <c r="C43" t="n">
-        <v>604.8221557270407</v>
+        <v>604.8221557270404</v>
       </c>
       <c r="D43" t="n">
-        <v>511.0757294556524</v>
+        <v>511.0757294556521</v>
       </c>
       <c r="E43" t="n">
-        <v>419.5328490142067</v>
+        <v>419.5328490142065</v>
       </c>
       <c r="F43" t="n">
-        <v>329.0131146572438</v>
+        <v>329.0131146572436</v>
       </c>
       <c r="G43" t="n">
-        <v>217.4832637291176</v>
+        <v>217.4832637291174</v>
       </c>
       <c r="H43" t="n">
         <v>125.8827588149306</v>
       </c>
       <c r="I43" t="n">
-        <v>78.99612764635185</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J43" t="n">
         <v>165.7007109240894</v>
       </c>
       <c r="K43" t="n">
-        <v>402.4780901932356</v>
+        <v>402.4780901932359</v>
       </c>
       <c r="L43" t="n">
         <v>745.5475071845399</v>
@@ -7582,7 +7582,7 @@
         <v>1481.728184930475</v>
       </c>
       <c r="O43" t="n">
-        <v>1808.983783392195</v>
+        <v>1808.983783392194</v>
       </c>
       <c r="P43" t="n">
         <v>2073.460656767447</v>
@@ -7594,13 +7594,13 @@
         <v>2147.804633369929</v>
       </c>
       <c r="S43" t="n">
-        <v>2009.051825885427</v>
+        <v>2009.051825885426</v>
       </c>
       <c r="T43" t="n">
         <v>1842.812724517877</v>
       </c>
       <c r="U43" t="n">
-        <v>1610.069312923898</v>
+        <v>1610.069312923897</v>
       </c>
       <c r="V43" t="n">
         <v>1411.755037858958</v>
@@ -7612,7 +7612,7 @@
         <v>1007.088743205875</v>
       </c>
       <c r="Y43" t="n">
-        <v>842.6663772032924</v>
+        <v>842.6663772032921</v>
       </c>
     </row>
     <row r="44">
@@ -7625,22 +7625,22 @@
         <v>1984.953510602832</v>
       </c>
       <c r="C44" t="n">
-        <v>1672.361206803368</v>
+        <v>1672.361206803367</v>
       </c>
       <c r="D44" t="n">
-        <v>1370.465721337565</v>
+        <v>1370.465721337564</v>
       </c>
       <c r="E44" t="n">
         <v>1041.047681880268</v>
       </c>
       <c r="F44" t="n">
-        <v>686.4319902316079</v>
+        <v>686.4319902316081</v>
       </c>
       <c r="G44" t="n">
-        <v>327.2900684639162</v>
+        <v>327.2900684639167</v>
       </c>
       <c r="H44" t="n">
-        <v>81.57375973046301</v>
+        <v>81.57375973046302</v>
       </c>
       <c r="I44" t="n">
         <v>78.99612764635185</v>
@@ -7649,16 +7649,16 @@
         <v>398.7058358746622</v>
       </c>
       <c r="K44" t="n">
-        <v>998.6126165643743</v>
+        <v>998.6126165643742</v>
       </c>
       <c r="L44" t="n">
-        <v>1381.642050533481</v>
+        <v>1431.357368685843</v>
       </c>
       <c r="M44" t="n">
-        <v>1839.505535139016</v>
+        <v>1889.220853291378</v>
       </c>
       <c r="N44" t="n">
-        <v>2359.106856138198</v>
+        <v>2359.106856138199</v>
       </c>
       <c r="O44" t="n">
         <v>2789.471622980683</v>
@@ -7682,13 +7682,13 @@
         <v>3537.138917812793</v>
       </c>
       <c r="V44" t="n">
-        <v>3262.44624361017</v>
+        <v>3262.446243610169</v>
       </c>
       <c r="W44" t="n">
         <v>2966.047801481003</v>
       </c>
       <c r="X44" t="n">
-        <v>2648.952256360871</v>
+        <v>2648.95225636087</v>
       </c>
       <c r="Y44" t="n">
         <v>2315.183137526006</v>
@@ -7725,25 +7725,25 @@
         <v>78.99612764635185</v>
       </c>
       <c r="J45" t="n">
-        <v>275.7196599533635</v>
+        <v>275.7196599533634</v>
       </c>
       <c r="K45" t="n">
-        <v>713.2772311374387</v>
+        <v>476.7517688016198</v>
       </c>
       <c r="L45" t="n">
-        <v>1029.912251542204</v>
+        <v>793.3867892063852</v>
       </c>
       <c r="M45" t="n">
-        <v>1418.767253817759</v>
+        <v>1182.24179148194</v>
       </c>
       <c r="N45" t="n">
-        <v>1832.322735845124</v>
+        <v>1595.797273509306</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.425412079989</v>
+        <v>1951.89994974417</v>
       </c>
       <c r="P45" t="n">
-        <v>2454.896138081692</v>
+        <v>2246.919623223202</v>
       </c>
       <c r="Q45" t="n">
         <v>2583.105565158056</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>717.388125514</v>
+        <v>717.3881255140001</v>
       </c>
       <c r="C46" t="n">
-        <v>604.8221557270405</v>
+        <v>604.8221557270406</v>
       </c>
       <c r="D46" t="n">
-        <v>511.0757294556522</v>
+        <v>511.0757294556523</v>
       </c>
       <c r="E46" t="n">
-        <v>419.5328490142065</v>
+        <v>419.5328490142067</v>
       </c>
       <c r="F46" t="n">
-        <v>329.0131146572436</v>
+        <v>329.0131146572438</v>
       </c>
       <c r="G46" t="n">
-        <v>217.4832637291174</v>
+        <v>217.4832637291177</v>
       </c>
       <c r="H46" t="n">
         <v>125.8827588149306</v>
@@ -7810,16 +7810,16 @@
         <v>402.4780901932356</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5475071845394</v>
+        <v>745.5475071845397</v>
       </c>
       <c r="M46" t="n">
         <v>1114.65193471689</v>
       </c>
       <c r="N46" t="n">
-        <v>1481.728184930474</v>
+        <v>1481.728184930475</v>
       </c>
       <c r="O46" t="n">
-        <v>1808.983783392195</v>
+        <v>1808.983783392194</v>
       </c>
       <c r="P46" t="n">
         <v>2073.460656767447</v>
@@ -7849,7 +7849,7 @@
         <v>1007.088743205875</v>
       </c>
       <c r="Y46" t="n">
-        <v>842.6663772032922</v>
+        <v>842.6663772032923</v>
       </c>
     </row>
   </sheetData>
@@ -8061,19 +8061,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,13 +8541,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8693,13 +8693,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>86.1645259076675</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>105.8502357692028</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>28.83732068416973</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>238.9146084200186</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>14.60311251667372</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>77.248889266937</v>
+        <v>77.2488892669387</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>238.9146084200189</v>
       </c>
       <c r="L15" t="n">
-        <v>100.5404067478489</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.60311251667372</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>86.16452590766914</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,13 +9179,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>99.74693365208884</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>28.83732068416973</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>28.83732068416936</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>14.60311251667372</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>407.92443069096</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>105.850235769203</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>28.83732068416958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>28.83732068416992</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>14.60311251667372</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>17.45117367758132</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,13 +9650,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>77.24888926693697</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>28.83732068416941</v>
+        <v>28.83732068416992</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>14.60311251667372</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,16 +9881,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>159.3986347007747</v>
       </c>
       <c r="N26" t="n">
-        <v>105.8502357692013</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>28.83732068416992</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.54287512049044</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>14.60311251667372</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,19 +10118,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>371.7136253606794</v>
       </c>
       <c r="N29" t="n">
-        <v>105.8502357692013</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>28.83732068416973</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>28.83732068416958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>14.60311251667372</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,16 +10355,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>105.8502357692023</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>90.68528247068605</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>238.9146084200189</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>28.83732068416936</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.60311251667372</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>23.02953554612441</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>50.21749308319301</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>238.9146084200191</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>28.83732068416987</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.60311251667372</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10835,13 +10835,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>50.21749308319403</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>50.82891765242559</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>28.83732068416995</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>28.83732068416992</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>50.21749308319392</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>50.82891765242644</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>28.83732068416984</v>
+        <v>28.8373206841699</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>50.21749308319437</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>50.21749308319346</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>238.914608420019</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>28.83732068416992</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>14.60311251667372</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33.19986508978756</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2210634283829</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I13" t="n">
         <v>102.2242758664309</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>97.71153510303041</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.1717904191954</v>
+        <v>157.3255283187677</v>
       </c>
       <c r="T13" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2224884875777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,10 +23659,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.2210634283829</v>
@@ -23671,7 +23671,7 @@
         <v>146.4910108745831</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.2242758664309</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>97.71153510303041</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>30.27469743548831</v>
       </c>
       <c r="T16" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2224884875777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>195.2917894053975</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.2210634283829</v>
       </c>
       <c r="H19" t="n">
-        <v>146.4910108745831</v>
+        <v>125.4278760566044</v>
       </c>
       <c r="I19" t="n">
         <v>102.2242758664309</v>
@@ -23938,13 +23938,13 @@
         <v>97.71153510303041</v>
       </c>
       <c r="S19" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>224.4369904392211</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.8354982676353</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>83.36000145462071</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I25" t="n">
         <v>102.2242758664309</v>
@@ -24412,13 +24412,13 @@
         <v>97.71153510303041</v>
       </c>
       <c r="S25" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>149.8149813192584</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>196.4957608638711</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,7 +24649,7 @@
         <v>97.71153510303041</v>
       </c>
       <c r="S28" t="n">
-        <v>176.708660082057</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>137.9559869118997</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.93488719823016</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>97.71153510303041</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T31" t="n">
-        <v>55.68056939662753</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.0998663845603</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>142.5147073012508</v>
+        <v>142.5147073012511</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>121.7018488491924</v>
       </c>
       <c r="F34" t="n">
-        <v>29.50448528695685</v>
+        <v>120.6889342255545</v>
       </c>
       <c r="G34" t="n">
-        <v>141.4889496310059</v>
+        <v>141.4889496310061</v>
       </c>
       <c r="H34" t="n">
-        <v>121.7588970772061</v>
+        <v>121.7588970772063</v>
       </c>
       <c r="I34" t="n">
-        <v>77.49216206905388</v>
+        <v>19.70573066582897</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>72.97942130565339</v>
+        <v>72.97942130565364</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>287364.6194524991</v>
+      </c>
+      <c r="C2" t="n">
+        <v>287364.6194524992</v>
+      </c>
+      <c r="D2" t="n">
         <v>287364.619452499</v>
-      </c>
-      <c r="C2" t="n">
-        <v>287364.6194524991</v>
-      </c>
-      <c r="D2" t="n">
-        <v>287364.6194524991</v>
       </c>
       <c r="E2" t="n">
         <v>276188.6557640191</v>
@@ -26326,34 +26326,34 @@
         <v>276188.6557640192</v>
       </c>
       <c r="G2" t="n">
+        <v>276188.6557640192</v>
+      </c>
+      <c r="H2" t="n">
         <v>276188.6557640191</v>
-      </c>
-      <c r="H2" t="n">
-        <v>276188.6557640193</v>
       </c>
       <c r="I2" t="n">
         <v>276188.6557640191</v>
       </c>
       <c r="J2" t="n">
-        <v>276188.6557640192</v>
+        <v>276188.655764019</v>
       </c>
       <c r="K2" t="n">
         <v>276188.6557640192</v>
       </c>
       <c r="L2" t="n">
-        <v>281141.5761444313</v>
+        <v>281141.5761444314</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="N2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19785.69103790162</v>
+        <v>19785.69103790142</v>
       </c>
       <c r="M3" t="n">
-        <v>210874.6803490289</v>
+        <v>210874.6803490292</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
-        <v>45771.09472565656</v>
+        <v>45771.09472565659</v>
       </c>
       <c r="F4" t="n">
-        <v>45771.09472565657</v>
+        <v>45771.0947256566</v>
       </c>
       <c r="G4" t="n">
-        <v>45771.09472565657</v>
+        <v>45771.09472565659</v>
       </c>
       <c r="H4" t="n">
-        <v>45771.09472565655</v>
+        <v>45771.0947256566</v>
       </c>
       <c r="I4" t="n">
         <v>45771.09472565659</v>
       </c>
       <c r="J4" t="n">
-        <v>45771.09472565657</v>
+        <v>45771.09472565659</v>
       </c>
       <c r="K4" t="n">
-        <v>45771.09472565656</v>
+        <v>45771.09472565659</v>
       </c>
       <c r="L4" t="n">
-        <v>53909.19270292527</v>
+        <v>53909.19270292523</v>
       </c>
       <c r="M4" t="n">
         <v>86767.32092341204</v>
@@ -26454,10 +26454,10 @@
         <v>86767.32092341203</v>
       </c>
       <c r="O4" t="n">
-        <v>86767.32092341201</v>
+        <v>86767.32092341203</v>
       </c>
       <c r="P4" t="n">
-        <v>86767.320923412</v>
+        <v>86767.32092341204</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>94548.43424048129</v>
+        <v>94548.43424048131</v>
       </c>
       <c r="F5" t="n">
-        <v>94548.43424048129</v>
+        <v>94548.43424048131</v>
       </c>
       <c r="G5" t="n">
-        <v>94548.43424048129</v>
+        <v>94548.43424048131</v>
       </c>
       <c r="H5" t="n">
-        <v>94548.43424048129</v>
+        <v>94548.43424048131</v>
       </c>
       <c r="I5" t="n">
         <v>94548.43424048129</v>
@@ -26497,16 +26497,16 @@
         <v>94548.43424048129</v>
       </c>
       <c r="L5" t="n">
-        <v>96627.63831531299</v>
+        <v>96627.63831531296</v>
       </c>
       <c r="M5" t="n">
+        <v>86125.32916542375</v>
+      </c>
+      <c r="N5" t="n">
+        <v>86125.32916542375</v>
+      </c>
+      <c r="O5" t="n">
         <v>86125.32916542374</v>
-      </c>
-      <c r="N5" t="n">
-        <v>86125.32916542373</v>
-      </c>
-      <c r="O5" t="n">
-        <v>86125.32916542375</v>
       </c>
       <c r="P5" t="n">
         <v>86125.32916542375</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196119.3481197197</v>
+        <v>-196119.3481197196</v>
       </c>
       <c r="C6" t="n">
-        <v>-115349.9165881719</v>
+        <v>-115349.9165881718</v>
       </c>
       <c r="D6" t="n">
-        <v>-115349.9165881719</v>
+        <v>-115349.916588172</v>
       </c>
       <c r="E6" t="n">
-        <v>-939943.7141798637</v>
+        <v>-940023.5424919243</v>
       </c>
       <c r="F6" t="n">
-        <v>135869.1267978813</v>
+        <v>135789.2984858208</v>
       </c>
       <c r="G6" t="n">
-        <v>135869.1267978812</v>
+        <v>135789.2984858207</v>
       </c>
       <c r="H6" t="n">
-        <v>135869.1267978814</v>
+        <v>135789.2984858206</v>
       </c>
       <c r="I6" t="n">
-        <v>135869.1267978812</v>
+        <v>135789.2984858207</v>
       </c>
       <c r="J6" t="n">
-        <v>72809.1841987751</v>
+        <v>72729.35588671431</v>
       </c>
       <c r="K6" t="n">
-        <v>135869.1267978813</v>
+        <v>135789.2984858207</v>
       </c>
       <c r="L6" t="n">
-        <v>110819.0540882914</v>
+        <v>110774.6037789484</v>
       </c>
       <c r="M6" t="n">
-        <v>-96402.71098536563</v>
+        <v>-96402.71098536576</v>
       </c>
       <c r="N6" t="n">
         <v>114471.9693636634</v>
       </c>
       <c r="O6" t="n">
-        <v>114471.9693636635</v>
+        <v>114471.9693636634</v>
       </c>
       <c r="P6" t="n">
-        <v>114471.9693636635</v>
+        <v>114471.9693636634</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="M2" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="N2" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="O2" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="P2" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
     </row>
     <row r="3">
@@ -26744,31 +26744,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4988339511697</v>
+        <v>981.4988339511696</v>
       </c>
       <c r="F3" t="n">
-        <v>981.4988339511697</v>
+        <v>981.4988339511696</v>
       </c>
       <c r="G3" t="n">
-        <v>981.4988339511697</v>
+        <v>981.4988339511696</v>
       </c>
       <c r="H3" t="n">
-        <v>981.4988339511697</v>
+        <v>981.4988339511696</v>
       </c>
       <c r="I3" t="n">
-        <v>981.4988339511697</v>
+        <v>981.4988339511696</v>
       </c>
       <c r="J3" t="n">
-        <v>981.4988339511697</v>
+        <v>981.4988339511696</v>
       </c>
       <c r="K3" t="n">
-        <v>981.4988339511697</v>
+        <v>981.4988339511696</v>
       </c>
       <c r="L3" t="n">
-        <v>981.4988339511697</v>
+        <v>981.4988339511696</v>
       </c>
       <c r="M3" t="n">
-        <v>981.4988339511697</v>
+        <v>981.4988339511696</v>
       </c>
       <c r="N3" t="n">
         <v>981.4988339511696</v>
@@ -26777,7 +26777,7 @@
         <v>981.4988339511697</v>
       </c>
       <c r="P3" t="n">
-        <v>981.4988339511697</v>
+        <v>981.4988339511696</v>
       </c>
     </row>
     <row r="4">
@@ -26820,13 +26820,13 @@
         <v>1203.153941782003</v>
       </c>
       <c r="M4" t="n">
+        <v>987.4515955793981</v>
+      </c>
+      <c r="N4" t="n">
+        <v>987.4515955793981</v>
+      </c>
+      <c r="O4" t="n">
         <v>987.4515955793979</v>
-      </c>
-      <c r="N4" t="n">
-        <v>987.4515955793977</v>
-      </c>
-      <c r="O4" t="n">
-        <v>987.4515955793981</v>
       </c>
       <c r="P4" t="n">
         <v>987.4515955793981</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="M2" t="n">
-        <v>31.07439721216098</v>
+        <v>31.0743972121612</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4988339511697</v>
+        <v>981.4988339511696</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>962.1396529043441</v>
+        <v>962.1396529043443</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>746.4373067017389</v>
+        <v>746.4373067017393</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.1396529043441</v>
+        <v>962.1396529043443</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>189.8484676766033</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27436,13 +27436,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>110.7246804050267</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,16 +27470,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>13.6733673731691</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>138.6624349137638</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>130.88463262487</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27558,7 +27558,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>341.4540909391266</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>194.4189411335972</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27673,7 +27673,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>141.8050338714791</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>152.4039554062463</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>119.7495544039028</v>
       </c>
       <c r="U7" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>154.522208511831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>335.9462234883513</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>44.3738471055035</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27992,13 +27992,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>31.28329604032487</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>31.76164565717804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="C34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="D34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="E34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="F34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="G34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="H34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="I34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="J34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="K34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="L34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="M34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="N34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="O34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="P34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="R34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="S34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="T34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="U34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="V34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="W34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="X34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.73211379737702</v>
+        <v>24.73211379737677</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="C35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="D35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="E35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="F35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="G35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="H35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="I35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="T35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="U35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="V35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="W35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="X35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="C37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="D37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="E37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="F37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="G37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="H37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="I37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="J37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="K37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="L37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="M37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="N37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="O37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="P37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="R37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="S37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="T37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="U37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="V37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="W37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="X37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="C38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="D38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="E38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="F38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="G38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="H38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="I38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="T38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="U38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="V38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="W38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="X38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="Y38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="C40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="D40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="E40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="F40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="G40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="H40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="I40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="J40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="K40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="L40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="M40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="N40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="O40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="P40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="R40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="S40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="T40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="U40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="V40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="W40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="X40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953797</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="C41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="D41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="E41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="F41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="G41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="H41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="I41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="T41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="U41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="V41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="W41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="X41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="C43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="D43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="E43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="F43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="G43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="H43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="I43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="J43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="K43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="L43" t="n">
-        <v>55.80651100953821</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="M43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="N43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="O43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="P43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="R43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="S43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="T43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="U43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="V43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="W43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="X43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.80651100953797</v>
+        <v>55.80651100953798</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="C44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="D44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="E44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="F44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="G44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="H44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="I44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="T44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="U44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="V44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="W44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="X44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="C46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="D46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="E46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="F46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="G46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="H46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="I46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="J46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="K46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="L46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="M46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="N46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="O46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="P46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="R46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="S46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="T46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="U46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="V46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="W46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="X46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.80651100953796</v>
+        <v>55.80651100953799</v>
       </c>
     </row>
   </sheetData>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H11" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I11" t="n">
         <v>152.1175227975979</v>
@@ -31768,25 +31768,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M11" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N11" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O11" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P11" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q11" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R11" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S11" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T11" t="n">
         <v>17.27240661556279</v>
@@ -31838,7 +31838,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J12" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K12" t="n">
         <v>340.904175184719</v>
@@ -31853,10 +31853,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O12" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P12" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q12" t="n">
         <v>269.4862458803287</v>
@@ -31868,7 +31868,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T12" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U12" t="n">
         <v>0.1388913444270524</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H13" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I13" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J13" t="n">
         <v>125.1330562563647</v>
@@ -31944,13 +31944,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S13" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T13" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H14" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I14" t="n">
         <v>152.1175227975979</v>
@@ -32005,25 +32005,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M14" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N14" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O14" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P14" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q14" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R14" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S14" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T14" t="n">
         <v>17.27240661556279</v>
@@ -32075,7 +32075,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J15" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K15" t="n">
         <v>340.904175184719</v>
@@ -32090,10 +32090,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O15" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P15" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q15" t="n">
         <v>269.4862458803287</v>
@@ -32105,7 +32105,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T15" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U15" t="n">
         <v>0.1388913444270524</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H16" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I16" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J16" t="n">
         <v>125.1330562563647</v>
@@ -32181,13 +32181,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S16" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T16" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H17" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I17" t="n">
         <v>152.1175227975979</v>
@@ -32242,25 +32242,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M17" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N17" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O17" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P17" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q17" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R17" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S17" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T17" t="n">
         <v>17.27240661556279</v>
@@ -32312,7 +32312,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J18" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K18" t="n">
         <v>340.904175184719</v>
@@ -32327,10 +32327,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O18" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P18" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q18" t="n">
         <v>269.4862458803287</v>
@@ -32342,7 +32342,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T18" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U18" t="n">
         <v>0.1388913444270524</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H19" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I19" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J19" t="n">
         <v>125.1330562563647</v>
@@ -32418,13 +32418,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S19" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T19" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H20" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I20" t="n">
         <v>152.1175227975979</v>
@@ -32479,25 +32479,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M20" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N20" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O20" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P20" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q20" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R20" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S20" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T20" t="n">
         <v>17.27240661556279</v>
@@ -32549,7 +32549,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J21" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K21" t="n">
         <v>340.904175184719</v>
@@ -32564,10 +32564,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O21" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P21" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q21" t="n">
         <v>269.4862458803287</v>
@@ -32579,7 +32579,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T21" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U21" t="n">
         <v>0.1388913444270524</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H22" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I22" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J22" t="n">
         <v>125.1330562563647</v>
@@ -32655,13 +32655,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S22" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T22" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H23" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I23" t="n">
         <v>152.1175227975979</v>
@@ -32716,25 +32716,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M23" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N23" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O23" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P23" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q23" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R23" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S23" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T23" t="n">
         <v>17.27240661556279</v>
@@ -32786,7 +32786,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J24" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K24" t="n">
         <v>340.904175184719</v>
@@ -32801,10 +32801,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O24" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P24" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q24" t="n">
         <v>269.4862458803287</v>
@@ -32816,7 +32816,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T24" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U24" t="n">
         <v>0.1388913444270524</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H25" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I25" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J25" t="n">
         <v>125.1330562563647</v>
@@ -32892,13 +32892,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S25" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T25" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H26" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I26" t="n">
         <v>152.1175227975979</v>
@@ -32953,25 +32953,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M26" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N26" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O26" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P26" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q26" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R26" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S26" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T26" t="n">
         <v>17.27240661556279</v>
@@ -33023,7 +33023,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J27" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K27" t="n">
         <v>340.904175184719</v>
@@ -33038,10 +33038,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O27" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P27" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q27" t="n">
         <v>269.4862458803287</v>
@@ -33053,7 +33053,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T27" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U27" t="n">
         <v>0.1388913444270524</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H28" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I28" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J28" t="n">
         <v>125.1330562563647</v>
@@ -33129,13 +33129,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S28" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T28" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H29" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I29" t="n">
         <v>152.1175227975979</v>
@@ -33190,25 +33190,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M29" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N29" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O29" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P29" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q29" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R29" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S29" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T29" t="n">
         <v>17.27240661556279</v>
@@ -33260,7 +33260,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J30" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K30" t="n">
         <v>340.904175184719</v>
@@ -33275,10 +33275,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O30" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P30" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q30" t="n">
         <v>269.4862458803287</v>
@@ -33290,7 +33290,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T30" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U30" t="n">
         <v>0.1388913444270524</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H31" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I31" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J31" t="n">
         <v>125.1330562563647</v>
@@ -33366,13 +33366,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S31" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T31" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H32" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I32" t="n">
         <v>152.1175227975979</v>
@@ -33427,25 +33427,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M32" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N32" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O32" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P32" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q32" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R32" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S32" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T32" t="n">
         <v>17.27240661556279</v>
@@ -33497,7 +33497,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J33" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K33" t="n">
         <v>340.904175184719</v>
@@ -33512,10 +33512,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O33" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P33" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q33" t="n">
         <v>269.4862458803287</v>
@@ -33527,7 +33527,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T33" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U33" t="n">
         <v>0.1388913444270524</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H34" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I34" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J34" t="n">
         <v>125.1330562563647</v>
@@ -33603,13 +33603,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S34" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T34" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H35" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I35" t="n">
         <v>152.1175227975979</v>
@@ -33664,25 +33664,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M35" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N35" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O35" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P35" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q35" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R35" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S35" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T35" t="n">
         <v>17.27240661556279</v>
@@ -33734,7 +33734,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J36" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K36" t="n">
         <v>340.904175184719</v>
@@ -33749,10 +33749,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O36" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P36" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q36" t="n">
         <v>269.4862458803287</v>
@@ -33764,7 +33764,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T36" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U36" t="n">
         <v>0.1388913444270524</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H37" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I37" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J37" t="n">
         <v>125.1330562563647</v>
@@ -33840,13 +33840,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S37" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T37" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.945723955582589</v>
+        <v>3.945723955582588</v>
       </c>
       <c r="H44" t="n">
-        <v>40.4091454601102</v>
+        <v>40.40914546011019</v>
       </c>
       <c r="I44" t="n">
         <v>152.1175227975979</v>
@@ -34375,25 +34375,25 @@
         <v>622.6648331205998</v>
       </c>
       <c r="M44" t="n">
-        <v>692.8346015156917</v>
+        <v>692.8346015156916</v>
       </c>
       <c r="N44" t="n">
-        <v>704.0453897044908</v>
+        <v>704.0453897044907</v>
       </c>
       <c r="O44" t="n">
-        <v>664.8100971211665</v>
+        <v>664.8100971211663</v>
       </c>
       <c r="P44" t="n">
         <v>567.4000369677211</v>
       </c>
       <c r="Q44" t="n">
-        <v>426.0937978084196</v>
+        <v>426.0937978084195</v>
       </c>
       <c r="R44" t="n">
         <v>247.855582424865</v>
       </c>
       <c r="S44" t="n">
-        <v>89.91318463783833</v>
+        <v>89.91318463783831</v>
       </c>
       <c r="T44" t="n">
         <v>17.27240661556279</v>
@@ -34445,7 +34445,7 @@
         <v>72.68647025015738</v>
       </c>
       <c r="J45" t="n">
-        <v>199.457230020209</v>
+        <v>199.4572300202089</v>
       </c>
       <c r="K45" t="n">
         <v>340.904175184719</v>
@@ -34460,10 +34460,10 @@
         <v>549.074522211985</v>
       </c>
       <c r="O45" t="n">
-        <v>502.2959174089538</v>
+        <v>502.2959174089537</v>
       </c>
       <c r="P45" t="n">
-        <v>403.1367569110003</v>
+        <v>403.1367569110002</v>
       </c>
       <c r="Q45" t="n">
         <v>269.4862458803287</v>
@@ -34475,7 +34475,7 @@
         <v>39.21365624323774</v>
       </c>
       <c r="T45" t="n">
-        <v>8.509409701897402</v>
+        <v>8.5094097018974</v>
       </c>
       <c r="U45" t="n">
         <v>0.1388913444270524</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.76991593007588</v>
+        <v>1.769915930075879</v>
       </c>
       <c r="H46" t="n">
         <v>15.73616163285647</v>
       </c>
       <c r="I46" t="n">
-        <v>53.22619906082738</v>
+        <v>53.22619906082737</v>
       </c>
       <c r="J46" t="n">
         <v>125.1330562563647</v>
@@ -34551,13 +34551,13 @@
         <v>79.58185627413907</v>
       </c>
       <c r="S46" t="n">
-        <v>30.84480761777691</v>
+        <v>30.8448076177769</v>
       </c>
       <c r="T46" t="n">
         <v>7.562368064869665</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09654086891322991</v>
+        <v>0.0965408689132299</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35261,13 +35261,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K11" t="n">
-        <v>605.9664451411234</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L11" t="n">
-        <v>473.0629440582801</v>
+        <v>804.559632701063</v>
       </c>
       <c r="M11" t="n">
-        <v>462.488368288419</v>
+        <v>462.4883682884189</v>
       </c>
       <c r="N11" t="n">
-        <v>911.9792505198841</v>
+        <v>580.4825618771026</v>
       </c>
       <c r="O11" t="n">
-        <v>815.512066962225</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P11" t="n">
         <v>657.9657493839343</v>
       </c>
       <c r="Q11" t="n">
-        <v>416.1030985938748</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R11" t="n">
-        <v>97.98646448371531</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>198.7106386939511</v>
       </c>
       <c r="K12" t="n">
-        <v>203.06273621036</v>
+        <v>231.9000568945297</v>
       </c>
       <c r="L12" t="n">
         <v>319.8333539442075</v>
@@ -35498,16 +35498,16 @@
         <v>392.7828305813691</v>
       </c>
       <c r="N12" t="n">
-        <v>656.6474185486703</v>
+        <v>417.7328101286517</v>
       </c>
       <c r="O12" t="n">
         <v>359.6996729645093</v>
       </c>
       <c r="P12" t="n">
-        <v>269.1623494966701</v>
+        <v>269.16234949667</v>
       </c>
       <c r="Q12" t="n">
-        <v>129.5044717943072</v>
+        <v>339.5817595301563</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.77387613969191</v>
+        <v>31.77387613969189</v>
       </c>
       <c r="K13" t="n">
-        <v>183.3625589592966</v>
+        <v>183.3625589592965</v>
       </c>
       <c r="L13" t="n">
         <v>290.7282536281429</v>
@@ -35586,7 +35586,7 @@
         <v>211.3418459351616</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.04428067493224</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K14" t="n">
-        <v>359.0699218368956</v>
+        <v>359.0699218368972</v>
       </c>
       <c r="L14" t="n">
         <v>804.559632701063</v>
       </c>
       <c r="M14" t="n">
-        <v>912.0019017812515</v>
+        <v>912.0019017812514</v>
       </c>
       <c r="N14" t="n">
-        <v>911.9792505198841</v>
+        <v>911.979250519884</v>
       </c>
       <c r="O14" t="n">
-        <v>815.512066962225</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P14" t="n">
         <v>336.1670412124516</v>
@@ -35668,7 +35668,7 @@
         <v>203.7881079339701</v>
       </c>
       <c r="R14" t="n">
-        <v>97.98646448371531</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>72.61960335354226</v>
+        <v>198.7106386939511</v>
       </c>
       <c r="K15" t="n">
-        <v>467.5279732229386</v>
+        <v>441.9773446303789</v>
       </c>
       <c r="L15" t="n">
-        <v>420.3737606920565</v>
+        <v>319.8333539442075</v>
       </c>
       <c r="M15" t="n">
         <v>392.7828305813691</v>
@@ -35741,7 +35741,7 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P15" t="n">
-        <v>269.1623494966701</v>
+        <v>269.16234949667</v>
       </c>
       <c r="Q15" t="n">
         <v>129.5044717943072</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.77387613969191</v>
+        <v>31.77387613969189</v>
       </c>
       <c r="K16" t="n">
-        <v>183.3625589592966</v>
+        <v>183.3625589592965</v>
       </c>
       <c r="L16" t="n">
         <v>290.7282536281429</v>
@@ -35823,7 +35823,7 @@
         <v>211.3418459351616</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.04428067493224</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>153.8424840484417</v>
+        <v>322.9390992205155</v>
       </c>
       <c r="K17" t="n">
-        <v>281.8210325699586</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L17" t="n">
-        <v>804.559632701063</v>
+        <v>386.8984181506126</v>
       </c>
       <c r="M17" t="n">
-        <v>912.0019017812515</v>
+        <v>548.652894196088</v>
       </c>
       <c r="N17" t="n">
-        <v>911.9792505198841</v>
+        <v>911.979250519884</v>
       </c>
       <c r="O17" t="n">
-        <v>815.512066962225</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P17" t="n">
-        <v>435.9139748645404</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q17" t="n">
-        <v>416.1030985938748</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R17" t="n">
-        <v>32.27004461073287</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>198.7106386939511</v>
       </c>
       <c r="K18" t="n">
-        <v>203.06273621036</v>
+        <v>231.9000568945297</v>
       </c>
       <c r="L18" t="n">
         <v>319.8333539442075</v>
@@ -35972,13 +35972,13 @@
         <v>392.7828305813691</v>
       </c>
       <c r="N18" t="n">
-        <v>446.5701308128211</v>
+        <v>417.7328101286517</v>
       </c>
       <c r="O18" t="n">
         <v>359.6996729645093</v>
       </c>
       <c r="P18" t="n">
-        <v>269.1623494966701</v>
+        <v>269.16234949667</v>
       </c>
       <c r="Q18" t="n">
         <v>339.5817595301563</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.77387613969191</v>
+        <v>31.77387613969189</v>
       </c>
       <c r="K19" t="n">
-        <v>183.3625589592966</v>
+        <v>183.3625589592965</v>
       </c>
       <c r="L19" t="n">
         <v>290.7282536281429</v>
@@ -36060,7 +36060,7 @@
         <v>211.3418459351616</v>
       </c>
       <c r="Q19" t="n">
-        <v>62.04428067493224</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>153.8424840484417</v>
+        <v>322.9390992205155</v>
       </c>
       <c r="K20" t="n">
-        <v>281.8210325699586</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L20" t="n">
-        <v>794.8228488415726</v>
+        <v>804.559632701063</v>
       </c>
       <c r="M20" t="n">
-        <v>912.0019017812515</v>
+        <v>568.3386040576219</v>
       </c>
       <c r="N20" t="n">
-        <v>911.9792505198841</v>
+        <v>474.6323261078998</v>
       </c>
       <c r="O20" t="n">
-        <v>815.512066962225</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P20" t="n">
         <v>657.9657493839343</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.7881079339701</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R20" t="n">
-        <v>32.27004461073287</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>319.8333539442075</v>
       </c>
       <c r="M21" t="n">
-        <v>421.6201512655387</v>
+        <v>392.7828305813691</v>
       </c>
       <c r="N21" t="n">
         <v>417.7328101286517</v>
@@ -36215,7 +36215,7 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P21" t="n">
-        <v>269.1623494966701</v>
+        <v>297.9996701808399</v>
       </c>
       <c r="Q21" t="n">
         <v>339.5817595301563</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.77387613969191</v>
+        <v>31.77387613969189</v>
       </c>
       <c r="K22" t="n">
-        <v>183.3625589592966</v>
+        <v>183.3625589592965</v>
       </c>
       <c r="L22" t="n">
         <v>290.7282536281429</v>
@@ -36297,7 +36297,7 @@
         <v>211.3418459351616</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.04428067493224</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K23" t="n">
-        <v>281.8210325699586</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L23" t="n">
-        <v>804.559632701063</v>
+        <v>404.3495918281939</v>
       </c>
       <c r="M23" t="n">
-        <v>912.0019017812515</v>
+        <v>912.0019017812514</v>
       </c>
       <c r="N23" t="n">
-        <v>911.9792505198841</v>
+        <v>911.979250519884</v>
       </c>
       <c r="O23" t="n">
-        <v>815.512066962225</v>
+        <v>434.7118856994796</v>
       </c>
       <c r="P23" t="n">
-        <v>336.1670412124516</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q23" t="n">
-        <v>281.0369972009071</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R23" t="n">
-        <v>97.98646448371531</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P24" t="n">
-        <v>297.9996701808395</v>
+        <v>297.9996701808399</v>
       </c>
       <c r="Q24" t="n">
         <v>339.5817595301563</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.77387613969191</v>
+        <v>31.77387613969189</v>
       </c>
       <c r="K25" t="n">
-        <v>183.3625589592966</v>
+        <v>183.3625589592965</v>
       </c>
       <c r="L25" t="n">
         <v>290.7282536281429</v>
@@ -36534,7 +36534,7 @@
         <v>211.3418459351616</v>
       </c>
       <c r="Q25" t="n">
-        <v>62.04428067493224</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>322.9390992205155</v>
+        <v>153.8424840484417</v>
       </c>
       <c r="K26" t="n">
-        <v>605.9664451411234</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L26" t="n">
         <v>804.559632701063</v>
       </c>
       <c r="M26" t="n">
-        <v>462.488368288419</v>
+        <v>621.8870029891935</v>
       </c>
       <c r="N26" t="n">
-        <v>580.4825618771013</v>
+        <v>911.979250519884</v>
       </c>
       <c r="O26" t="n">
-        <v>815.512066962225</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P26" t="n">
-        <v>657.9657493839343</v>
+        <v>336.1670412124516</v>
       </c>
       <c r="Q26" t="n">
-        <v>416.1030985938748</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R26" t="n">
-        <v>97.98646448371531</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>72.61960335354226</v>
+        <v>198.7106386939511</v>
       </c>
       <c r="K27" t="n">
         <v>203.06273621036</v>
@@ -36689,10 +36689,10 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P27" t="n">
-        <v>587.6251181366072</v>
+        <v>297.9996701808399</v>
       </c>
       <c r="Q27" t="n">
-        <v>176.0473469147977</v>
+        <v>339.5817595301563</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>31.77387613969191</v>
+        <v>31.77387613969189</v>
       </c>
       <c r="K28" t="n">
-        <v>183.3625589592966</v>
+        <v>183.3625589592965</v>
       </c>
       <c r="L28" t="n">
         <v>290.7282536281429</v>
@@ -36771,7 +36771,7 @@
         <v>211.3418459351616</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.04428067493224</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>322.9390992205155</v>
+        <v>153.8424840484417</v>
       </c>
       <c r="K29" t="n">
-        <v>605.9664451411234</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L29" t="n">
         <v>804.559632701063</v>
       </c>
       <c r="M29" t="n">
-        <v>462.488368288419</v>
+        <v>834.2019936490983</v>
       </c>
       <c r="N29" t="n">
-        <v>580.4825618771013</v>
+        <v>911.979250519884</v>
       </c>
       <c r="O29" t="n">
-        <v>815.512066962225</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P29" t="n">
-        <v>657.9657493839343</v>
+        <v>336.1670412124516</v>
       </c>
       <c r="Q29" t="n">
-        <v>416.1030985938748</v>
+        <v>203.7881079339701</v>
       </c>
       <c r="R29" t="n">
-        <v>97.98646448371531</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>198.7106386939511</v>
       </c>
       <c r="K30" t="n">
-        <v>203.06273621036</v>
+        <v>231.9000568945297</v>
       </c>
       <c r="L30" t="n">
         <v>319.8333539442075</v>
       </c>
       <c r="M30" t="n">
-        <v>421.6201512655387</v>
+        <v>392.7828305813691</v>
       </c>
       <c r="N30" t="n">
         <v>417.7328101286517</v>
@@ -36926,7 +36926,7 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P30" t="n">
-        <v>269.1623494966701</v>
+        <v>269.16234949667</v>
       </c>
       <c r="Q30" t="n">
         <v>339.5817595301563</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.77387613969191</v>
+        <v>31.77387613969189</v>
       </c>
       <c r="K31" t="n">
-        <v>183.3625589592966</v>
+        <v>183.3625589592965</v>
       </c>
       <c r="L31" t="n">
         <v>290.7282536281429</v>
@@ -37008,7 +37008,7 @@
         <v>211.3418459351616</v>
       </c>
       <c r="Q31" t="n">
-        <v>62.04428067493224</v>
+        <v>62.04428067493221</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>153.8424840484417</v>
+        <v>322.9390992205155</v>
       </c>
       <c r="K32" t="n">
-        <v>605.9664451411234</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L32" t="n">
         <v>804.559632701063</v>
       </c>
       <c r="M32" t="n">
-        <v>912.0019017812515</v>
+        <v>568.3386040576212</v>
       </c>
       <c r="N32" t="n">
-        <v>911.9792505198841</v>
+        <v>474.6323261078998</v>
       </c>
       <c r="O32" t="n">
-        <v>525.3971681701657</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P32" t="n">
-        <v>336.1670412124516</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q32" t="n">
-        <v>416.1030985938748</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R32" t="n">
-        <v>97.98646448371531</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>198.7106386939511</v>
       </c>
       <c r="K33" t="n">
-        <v>203.06273621036</v>
+        <v>441.9773446303789</v>
       </c>
       <c r="L33" t="n">
         <v>319.8333539442075</v>
@@ -37157,16 +37157,16 @@
         <v>392.7828305813691</v>
       </c>
       <c r="N33" t="n">
-        <v>446.5701308128211</v>
+        <v>417.7328101286517</v>
       </c>
       <c r="O33" t="n">
         <v>359.6996729645093</v>
       </c>
       <c r="P33" t="n">
-        <v>269.1623494966701</v>
+        <v>269.16234949667</v>
       </c>
       <c r="Q33" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.50598993706893</v>
+        <v>56.50598993706866</v>
       </c>
       <c r="K34" t="n">
-        <v>208.0946727566736</v>
+        <v>208.0946727566733</v>
       </c>
       <c r="L34" t="n">
-        <v>315.4603674255199</v>
+        <v>315.4603674255196</v>
       </c>
       <c r="M34" t="n">
-        <v>341.7583578710211</v>
+        <v>341.7583578710208</v>
       </c>
       <c r="N34" t="n">
-        <v>339.709693912672</v>
+        <v>339.7096939126717</v>
       </c>
       <c r="O34" t="n">
-        <v>299.4868133552329</v>
+        <v>299.4868133552326</v>
       </c>
       <c r="P34" t="n">
-        <v>236.0739597325386</v>
+        <v>236.0739597325384</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.77639447230926</v>
+        <v>86.77639447230898</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>322.9390992205155</v>
+        <v>153.8424840484417</v>
       </c>
       <c r="K35" t="n">
-        <v>605.9664451411234</v>
+        <v>281.8210325699585</v>
       </c>
       <c r="L35" t="n">
-        <v>386.8984181506126</v>
+        <v>804.559632701063</v>
       </c>
       <c r="M35" t="n">
-        <v>462.488368288419</v>
+        <v>485.5179038345433</v>
       </c>
       <c r="N35" t="n">
-        <v>474.6323261078999</v>
+        <v>474.6323261078998</v>
       </c>
       <c r="O35" t="n">
-        <v>484.9293787826727</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P35" t="n">
         <v>657.9657493839343</v>
       </c>
       <c r="Q35" t="n">
-        <v>416.1030985938748</v>
+        <v>203.7881079339701</v>
       </c>
       <c r="R35" t="n">
-        <v>97.98646448371531</v>
+        <v>32.27004461073284</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>198.7106386939511</v>
       </c>
       <c r="K36" t="n">
-        <v>203.06273621036</v>
+        <v>441.9773446303792</v>
       </c>
       <c r="L36" t="n">
         <v>319.8333539442075</v>
@@ -37400,10 +37400,10 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P36" t="n">
-        <v>297.9996701808399</v>
+        <v>269.16234949667</v>
       </c>
       <c r="Q36" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.58038714922992</v>
+        <v>87.58038714922986</v>
       </c>
       <c r="K37" t="n">
-        <v>239.1690699688346</v>
+        <v>239.1690699688345</v>
       </c>
       <c r="L37" t="n">
-        <v>346.5347646376809</v>
+        <v>346.5347646376808</v>
       </c>
       <c r="M37" t="n">
         <v>372.8327550831821</v>
       </c>
       <c r="N37" t="n">
-        <v>370.784091124833</v>
+        <v>370.7840911248329</v>
       </c>
       <c r="O37" t="n">
         <v>330.5612105673939</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>153.8424840484417</v>
+        <v>322.9390992205155</v>
       </c>
       <c r="K38" t="n">
         <v>605.9664451411232</v>
@@ -37555,13 +37555,13 @@
         <v>474.6323261078998</v>
       </c>
       <c r="O38" t="n">
-        <v>815.5120669622249</v>
+        <v>484.9293787826736</v>
       </c>
       <c r="P38" t="n">
         <v>657.9657493839343</v>
       </c>
       <c r="Q38" t="n">
-        <v>254.6170255863956</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R38" t="n">
         <v>97.98646448371528</v>
@@ -37622,13 +37622,13 @@
         <v>198.7106386939511</v>
       </c>
       <c r="K39" t="n">
-        <v>203.06273621036</v>
+        <v>231.90005689453</v>
       </c>
       <c r="L39" t="n">
         <v>319.8333539442075</v>
       </c>
       <c r="M39" t="n">
-        <v>421.620151265539</v>
+        <v>392.7828305813691</v>
       </c>
       <c r="N39" t="n">
         <v>417.7328101286517</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.58038714922989</v>
+        <v>87.58038714922986</v>
       </c>
       <c r="K40" t="n">
         <v>239.1690699688345</v>
@@ -37710,7 +37710,7 @@
         <v>372.8327550831821</v>
       </c>
       <c r="N40" t="n">
-        <v>370.784091124833</v>
+        <v>370.7840911248329</v>
       </c>
       <c r="O40" t="n">
         <v>330.5612105673939</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>322.9390992205155</v>
+        <v>153.8424840484417</v>
       </c>
       <c r="K41" t="n">
         <v>605.9664451411234</v>
@@ -37792,13 +37792,13 @@
         <v>474.6323261078999</v>
       </c>
       <c r="O41" t="n">
-        <v>484.9293787826736</v>
+        <v>815.512066962225</v>
       </c>
       <c r="P41" t="n">
         <v>657.9657493839343</v>
       </c>
       <c r="Q41" t="n">
-        <v>416.1030985938748</v>
+        <v>254.6170255863966</v>
       </c>
       <c r="R41" t="n">
         <v>97.98646448371531</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.58038714922988</v>
+        <v>87.58038714922989</v>
       </c>
       <c r="K43" t="n">
         <v>239.1690699688345</v>
       </c>
       <c r="L43" t="n">
-        <v>346.5347646376811</v>
+        <v>346.5347646376808</v>
       </c>
       <c r="M43" t="n">
         <v>372.8327550831821</v>
@@ -38017,28 +38017,28 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K44" t="n">
-        <v>605.9664451411234</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L44" t="n">
-        <v>386.8984181506126</v>
+        <v>437.115911233807</v>
       </c>
       <c r="M44" t="n">
-        <v>462.488368288419</v>
+        <v>462.4883682884189</v>
       </c>
       <c r="N44" t="n">
-        <v>524.8498191910934</v>
+        <v>474.6323261078998</v>
       </c>
       <c r="O44" t="n">
-        <v>434.7118856994797</v>
+        <v>434.7118856994796</v>
       </c>
       <c r="P44" t="n">
         <v>657.9657493839343</v>
       </c>
       <c r="Q44" t="n">
-        <v>416.1030985938748</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R44" t="n">
-        <v>97.98646448371531</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>198.7106386939511</v>
       </c>
       <c r="K45" t="n">
-        <v>441.977344630379</v>
+        <v>203.06273621036</v>
       </c>
       <c r="L45" t="n">
         <v>319.8333539442075</v>
@@ -38111,10 +38111,10 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P45" t="n">
-        <v>269.1623494966701</v>
+        <v>297.9996701808399</v>
       </c>
       <c r="Q45" t="n">
-        <v>129.5044717943072</v>
+        <v>339.5817595301563</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.58038714922986</v>
+        <v>87.58038714922988</v>
       </c>
       <c r="K46" t="n">
         <v>239.1690699688345</v>
